--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_35.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_1_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3075994.03659965</v>
+        <v>3075607.32619785</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>247834.3978644323</v>
+        <v>247834.3978644303</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736552</v>
+        <v>504792.0292736553</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>337.4453664868315</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -674,7 +674,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>139.9542833990483</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>85.95850523071465</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E3" t="n">
         <v>145.5577298436975</v>
@@ -753,7 +753,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>67.69846245683961</v>
@@ -786,7 +786,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>89.19957422584083</v>
       </c>
       <c r="T3" t="n">
         <v>186.7982527956746</v>
@@ -798,13 +798,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="4">
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>37.09090371427742</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>157.7789187685189</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>142.7610139533483</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>11.57315202520402</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>275.6837683511145</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.1429954480694</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
         <v>389.6064368699203</v>
@@ -990,10 +990,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U6" t="n">
-        <v>53.56627272594336</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>226.1116663261494</v>
+        <v>49.0587092586382</v>
       </c>
       <c r="W6" t="n">
         <v>238.9027100790231</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>66.95154967741719</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>257.7395212081473</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>9.678787440507666</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>231.3697910192397</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,16 +1209,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>76.30553556433132</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -1230,7 +1230,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>158.7034744856297</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
         <v>226.1116663261494</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>57.47800331083538</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.6729386146303</v>
+        <v>276.6729386146302</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>264.6842555723119</v>
       </c>
       <c r="D11" t="n">
-        <v>255.66555961684</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F11" t="n">
         <v>296.5795132747227</v>
       </c>
       <c r="G11" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>57.65886129508324</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U11" t="n">
         <v>138.9063174149372</v>
       </c>
       <c r="V11" t="n">
-        <v>220.1793158548094</v>
+        <v>184.4745263193878</v>
       </c>
       <c r="W11" t="n">
         <v>245.4794153327663</v>
@@ -1436,7 +1436,7 @@
         <v>264.7796735655129</v>
       </c>
       <c r="Y11" t="n">
-        <v>135.2750477566539</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="12">
@@ -1455,13 +1455,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>117.0572715179742</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G12" t="n">
-        <v>127.4412149769483</v>
+        <v>39.75433043522225</v>
       </c>
       <c r="H12" t="n">
         <v>98.93847887876893</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
         <v>151.2714921173871</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68.28964948932732</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C13" t="n">
-        <v>54.4896443347278</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D13" t="n">
-        <v>38.11100873230619</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E13" t="n">
-        <v>37.05875858808564</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F13" t="n">
-        <v>37.52568291627195</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G13" t="n">
-        <v>53.80038563761978</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H13" t="n">
-        <v>44.3487532603102</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I13" t="n">
-        <v>29.33084844513955</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.59639806355686</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S13" t="n">
-        <v>98.14249946214061</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T13" t="n">
         <v>117.4169981442692</v>
@@ -1588,7 +1588,7 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W13" t="n">
-        <v>169.8646719595654</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X13" t="n">
         <v>115.5097739553693</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>276.6729386146302</v>
+        <v>46.64739049865912</v>
       </c>
       <c r="C14" t="n">
         <v>264.6842555723119</v>
@@ -1613,16 +1613,16 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E14" t="n">
-        <v>227.2219115379152</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>296.5795132747227</v>
+        <v>296.5795132747226</v>
       </c>
       <c r="G14" t="n">
-        <v>298.5127811721452</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>71.92652010774083</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>108.6851912980902</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>138.9063174149371</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W14" t="n">
-        <v>245.4794153327663</v>
+        <v>245.4794153327662</v>
       </c>
       <c r="X14" t="n">
-        <v>264.7796735655129</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y14" t="n">
-        <v>276.1762713617117</v>
+        <v>276.1762713617116</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H15" t="n">
-        <v>98.93847887876893</v>
+        <v>11.25159433704293</v>
       </c>
       <c r="I15" t="n">
         <v>67.69846245683961</v>
@@ -1737,7 +1737,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T15" t="n">
-        <v>99.11136825394725</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
         <v>216.3098444776729</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68.2896494893273</v>
+        <v>68.28964948932727</v>
       </c>
       <c r="C16" t="n">
-        <v>54.48964433472779</v>
+        <v>54.48964433472776</v>
       </c>
       <c r="D16" t="n">
-        <v>38.11100873230617</v>
+        <v>38.11100873230615</v>
       </c>
       <c r="E16" t="n">
-        <v>37.05875858808562</v>
+        <v>37.0587585880856</v>
       </c>
       <c r="F16" t="n">
-        <v>37.52568291627193</v>
+        <v>37.5256829162719</v>
       </c>
       <c r="G16" t="n">
-        <v>53.80038563761977</v>
+        <v>53.80038563761974</v>
       </c>
       <c r="H16" t="n">
-        <v>44.34875326031019</v>
+        <v>44.34875326031016</v>
       </c>
       <c r="I16" t="n">
-        <v>29.33084844513954</v>
+        <v>29.33084844513951</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.59639806355685</v>
+        <v>34.59639806355682</v>
       </c>
       <c r="S16" t="n">
-        <v>98.14249946214059</v>
+        <v>98.14249946214056</v>
       </c>
       <c r="T16" t="n">
         <v>117.4169981442692</v>
@@ -1825,13 +1825,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W16" t="n">
-        <v>169.8646719595662</v>
+        <v>169.8646719595661</v>
       </c>
       <c r="X16" t="n">
-        <v>115.5097739553693</v>
+        <v>115.5097739553692</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.384641711437</v>
+        <v>106.3846417114369</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>219.0992794299671</v>
+        <v>219.0992794299672</v>
       </c>
       <c r="C17" t="n">
-        <v>207.1105963876489</v>
+        <v>207.110596387649</v>
       </c>
       <c r="D17" t="n">
         <v>198.0919004321769</v>
       </c>
       <c r="E17" t="n">
-        <v>219.8340380020824</v>
+        <v>219.8340380020825</v>
       </c>
       <c r="F17" t="n">
         <v>239.0058540900596</v>
       </c>
       <c r="G17" t="n">
-        <v>240.9391219874821</v>
+        <v>240.9391219874822</v>
       </c>
       <c r="H17" t="n">
-        <v>158.489236965792</v>
+        <v>158.4892369657921</v>
       </c>
       <c r="I17" t="n">
-        <v>0.08520211042014125</v>
+        <v>0.08520211042022652</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>14.35286092307777</v>
+        <v>14.35286092307786</v>
       </c>
       <c r="T17" t="n">
-        <v>51.11153211342713</v>
+        <v>51.11153211342722</v>
       </c>
       <c r="U17" t="n">
-        <v>81.33265823027409</v>
+        <v>81.33265823027418</v>
       </c>
       <c r="V17" t="n">
         <v>162.6056566701463</v>
       </c>
       <c r="W17" t="n">
-        <v>187.9057561481032</v>
+        <v>187.9057561481033</v>
       </c>
       <c r="X17" t="n">
-        <v>207.2060143808498</v>
+        <v>207.2060143808499</v>
       </c>
       <c r="Y17" t="n">
-        <v>218.6026121770485</v>
+        <v>218.6026121770486</v>
       </c>
     </row>
     <row r="18">
@@ -1932,7 +1932,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>45.65997552789837</v>
       </c>
       <c r="G18" t="n">
         <v>127.4412149769483</v>
@@ -1941,7 +1941,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>39.1980041311164</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S18" t="n">
         <v>151.2714921173871</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.71599030466422</v>
+        <v>10.7159903046643</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.56884027747751</v>
+        <v>40.56884027747759</v>
       </c>
       <c r="T19" t="n">
-        <v>59.84333895960614</v>
+        <v>59.84333895960623</v>
       </c>
       <c r="U19" t="n">
-        <v>113.3145124229193</v>
+        <v>113.3145124229194</v>
       </c>
       <c r="V19" t="n">
-        <v>87.12412670428981</v>
+        <v>87.12412670428989</v>
       </c>
       <c r="W19" t="n">
-        <v>112.2910127749031</v>
+        <v>112.2910127749032</v>
       </c>
       <c r="X19" t="n">
-        <v>57.93611477070618</v>
+        <v>57.93611477070627</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81098252677387</v>
+        <v>48.81098252677396</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>240.9391219874821</v>
       </c>
       <c r="H20" t="n">
-        <v>158.489236965792</v>
+        <v>158.4892369657931</v>
       </c>
       <c r="I20" t="n">
         <v>0.08520211042014125</v>
@@ -2172,13 +2172,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>39.75433043522096</v>
+        <v>107.4527928920619</v>
       </c>
       <c r="H21" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>78.9500567938821</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>39.19800413111592</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -2561,19 +2561,19 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E26" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>296.5795132747226</v>
+        <v>255.816574286812</v>
       </c>
       <c r="G26" t="n">
-        <v>298.5127811721451</v>
+        <v>298.5127811721452</v>
       </c>
       <c r="H26" t="n">
         <v>216.0628961504551</v>
       </c>
       <c r="I26" t="n">
-        <v>57.65886129508318</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>71.92652010774081</v>
+        <v>71.92652010774086</v>
       </c>
       <c r="T26" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U26" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V26" t="n">
-        <v>166.7883532456676</v>
+        <v>220.1793158548093</v>
       </c>
       <c r="W26" t="n">
-        <v>245.4794153327662</v>
+        <v>245.4794153327663</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>264.7796735655129</v>
       </c>
       <c r="Y26" t="n">
-        <v>276.1762713617116</v>
+        <v>276.1762713617117</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326535</v>
       </c>
       <c r="I27" t="n">
-        <v>53.13297117133646</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.28964948932726</v>
+        <v>68.2896494893273</v>
       </c>
       <c r="C28" t="n">
-        <v>54.48964433472774</v>
+        <v>54.48964433472779</v>
       </c>
       <c r="D28" t="n">
-        <v>38.11100873230613</v>
+        <v>38.11100873230617</v>
       </c>
       <c r="E28" t="n">
-        <v>37.05875858808558</v>
+        <v>37.05875858808562</v>
       </c>
       <c r="F28" t="n">
-        <v>37.52568291627189</v>
+        <v>37.52568291627193</v>
       </c>
       <c r="G28" t="n">
-        <v>53.80038563761973</v>
+        <v>53.80038563761977</v>
       </c>
       <c r="H28" t="n">
-        <v>44.34875326031015</v>
+        <v>44.34875326031019</v>
       </c>
       <c r="I28" t="n">
-        <v>29.33084844513949</v>
+        <v>29.33084844513954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.5963980635568</v>
+        <v>34.59639806355685</v>
       </c>
       <c r="S28" t="n">
-        <v>98.14249946214055</v>
+        <v>98.14249946214059</v>
       </c>
       <c r="T28" t="n">
         <v>117.4169981442692</v>
@@ -2773,13 +2773,13 @@
         <v>144.6977858889529</v>
       </c>
       <c r="W28" t="n">
-        <v>169.8646719595661</v>
+        <v>169.8646719595662</v>
       </c>
       <c r="X28" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y28" t="n">
-        <v>106.3846417114369</v>
+        <v>106.384641711437</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>255.6655596168399</v>
       </c>
       <c r="E29" t="n">
-        <v>277.4076971867455</v>
+        <v>232.958818457628</v>
       </c>
       <c r="F29" t="n">
         <v>296.5795132747226</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>71.92652010774081</v>
+        <v>71.92652010774084</v>
       </c>
       <c r="T29" t="n">
         <v>108.6851912980902</v>
       </c>
       <c r="U29" t="n">
-        <v>138.9063174149371</v>
+        <v>138.9063174149372</v>
       </c>
       <c r="V29" t="n">
         <v>220.1793158548093</v>
@@ -2855,7 +2855,7 @@
         <v>245.4794153327662</v>
       </c>
       <c r="X29" t="n">
-        <v>220.3307948363969</v>
+        <v>264.7796735655128</v>
       </c>
       <c r="Y29" t="n">
         <v>276.1762713617116</v>
@@ -2889,7 +2889,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133602</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.28964948932726</v>
+        <v>68.28964948932729</v>
       </c>
       <c r="C31" t="n">
-        <v>54.48964433472774</v>
+        <v>54.48964433472777</v>
       </c>
       <c r="D31" t="n">
-        <v>38.11100873230613</v>
+        <v>38.11100873230616</v>
       </c>
       <c r="E31" t="n">
-        <v>37.05875858808558</v>
+        <v>37.05875858808561</v>
       </c>
       <c r="F31" t="n">
-        <v>37.52568291627189</v>
+        <v>37.52568291627192</v>
       </c>
       <c r="G31" t="n">
-        <v>53.80038563761973</v>
+        <v>53.80038563761975</v>
       </c>
       <c r="H31" t="n">
-        <v>44.34875326031015</v>
+        <v>44.34875326031018</v>
       </c>
       <c r="I31" t="n">
-        <v>29.33084844513949</v>
+        <v>29.33084844513952</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.5963980635568</v>
+        <v>34.59639806355683</v>
       </c>
       <c r="S31" t="n">
-        <v>98.14249946214055</v>
+        <v>98.14249946214058</v>
       </c>
       <c r="T31" t="n">
         <v>117.4169981442692</v>
@@ -3013,7 +3013,7 @@
         <v>169.8646719595661</v>
       </c>
       <c r="X31" t="n">
-        <v>115.5097739553692</v>
+        <v>115.5097739553693</v>
       </c>
       <c r="Y31" t="n">
         <v>106.3846417114369</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.452416085674</v>
+        <v>248.4524160856741</v>
       </c>
       <c r="C32" t="n">
-        <v>236.4637330433558</v>
+        <v>236.4637330433559</v>
       </c>
       <c r="D32" t="n">
-        <v>227.4450370878837</v>
+        <v>227.4450370878839</v>
       </c>
       <c r="E32" t="n">
-        <v>249.1871746577893</v>
+        <v>249.1871746577894</v>
       </c>
       <c r="F32" t="n">
-        <v>268.3589907457664</v>
+        <v>268.3589907457666</v>
       </c>
       <c r="G32" t="n">
-        <v>270.292258643189</v>
+        <v>270.2922586431891</v>
       </c>
       <c r="H32" t="n">
-        <v>187.8423736214989</v>
+        <v>187.842373621499</v>
       </c>
       <c r="I32" t="n">
-        <v>29.43833876612703</v>
+        <v>29.43833876612715</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>43.70599757878466</v>
+        <v>43.70599757878477</v>
       </c>
       <c r="T32" t="n">
-        <v>80.46466876913402</v>
+        <v>80.46466876913414</v>
       </c>
       <c r="U32" t="n">
-        <v>110.685794885981</v>
+        <v>110.6857948859811</v>
       </c>
       <c r="V32" t="n">
-        <v>191.9587933258532</v>
+        <v>191.9587933258533</v>
       </c>
       <c r="W32" t="n">
-        <v>217.2588928038101</v>
+        <v>217.2588928038102</v>
       </c>
       <c r="X32" t="n">
-        <v>236.5591510365567</v>
+        <v>236.5591510365568</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.9557488327554</v>
+        <v>247.9557488327555</v>
       </c>
     </row>
     <row r="33">
@@ -3120,7 +3120,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
-        <v>127.4412149769483</v>
+        <v>112.8757236914449</v>
       </c>
       <c r="H33" t="n">
         <v>98.93847887876893</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
         <v>151.2714921173871</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>40.06912696037111</v>
+        <v>40.06912696037122</v>
       </c>
       <c r="C34" t="n">
-        <v>26.26912180577159</v>
+        <v>26.2691218057717</v>
       </c>
       <c r="D34" t="n">
-        <v>9.89048620334998</v>
+        <v>9.890486203350093</v>
       </c>
       <c r="E34" t="n">
-        <v>8.838236059129429</v>
+        <v>8.838236059129542</v>
       </c>
       <c r="F34" t="n">
-        <v>9.305160387315738</v>
+        <v>9.305160387315851</v>
       </c>
       <c r="G34" t="n">
-        <v>25.57986310866357</v>
+        <v>25.57986310866369</v>
       </c>
       <c r="H34" t="n">
-        <v>16.12823073135399</v>
+        <v>16.12823073135411</v>
       </c>
       <c r="I34" t="n">
-        <v>1.110325916183342</v>
+        <v>1.110325916183456</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.375875534600652</v>
+        <v>6.375875534600766</v>
       </c>
       <c r="S34" t="n">
-        <v>69.9219769331844</v>
+        <v>69.92197693318451</v>
       </c>
       <c r="T34" t="n">
-        <v>89.19647561531303</v>
+        <v>89.19647561531315</v>
       </c>
       <c r="U34" t="n">
-        <v>142.6676490786262</v>
+        <v>142.6676490786263</v>
       </c>
       <c r="V34" t="n">
-        <v>116.4772633599967</v>
+        <v>116.4772633599968</v>
       </c>
       <c r="W34" t="n">
-        <v>141.64414943061</v>
+        <v>141.6441494306101</v>
       </c>
       <c r="X34" t="n">
-        <v>87.28925142641307</v>
+        <v>87.28925142641319</v>
       </c>
       <c r="Y34" t="n">
-        <v>78.16411918248076</v>
+        <v>78.16411918248087</v>
       </c>
     </row>
     <row r="35">
@@ -3363,7 +3363,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>53.1329711713359</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
@@ -3597,7 +3597,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326521</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>44.62093493050052</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
         <v>151.2714921173871</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>229.7437828235486</v>
+        <v>229.7437828235485</v>
       </c>
       <c r="C41" t="n">
         <v>217.7550997812303</v>
@@ -3752,13 +3752,13 @@
         <v>249.650357483641</v>
       </c>
       <c r="G41" t="n">
-        <v>251.5836253810635</v>
+        <v>175.7671732375671</v>
       </c>
       <c r="H41" t="n">
         <v>169.1337403593734</v>
       </c>
       <c r="I41" t="n">
-        <v>10.72970550400157</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>24.9973643166592</v>
+        <v>24.99736431665917</v>
       </c>
       <c r="T41" t="n">
-        <v>61.75603550700856</v>
+        <v>61.75603550700853</v>
       </c>
       <c r="U41" t="n">
-        <v>5.431003976357265</v>
+        <v>91.97716162385549</v>
       </c>
       <c r="V41" t="n">
         <v>173.2501600637277</v>
@@ -3806,7 +3806,7 @@
         <v>217.8505177744312</v>
       </c>
       <c r="Y41" t="n">
-        <v>229.24711557063</v>
+        <v>229.2471155706299</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>67.69846245683961</v>
+        <v>53.13297117133634</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>44.62093493050007</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21.36049369824565</v>
+        <v>21.36049369824562</v>
       </c>
       <c r="C43" t="n">
-        <v>7.56048854364613</v>
+        <v>7.560488543646102</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>6.871229846538114</v>
+        <v>6.871229846538085</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>51.21334367105894</v>
+        <v>51.21334367105891</v>
       </c>
       <c r="T43" t="n">
-        <v>70.48784235318757</v>
+        <v>70.48784235318755</v>
       </c>
       <c r="U43" t="n">
         <v>123.9590158165007</v>
       </c>
       <c r="V43" t="n">
-        <v>97.76863009787124</v>
+        <v>97.76863009787121</v>
       </c>
       <c r="W43" t="n">
         <v>122.9355161684845</v>
       </c>
       <c r="X43" t="n">
-        <v>68.58061816428761</v>
+        <v>68.58061816428759</v>
       </c>
       <c r="Y43" t="n">
-        <v>59.4554859203553</v>
+        <v>59.45548592035527</v>
       </c>
     </row>
     <row r="44">
@@ -3983,19 +3983,19 @@
         <v>208.7364038257583</v>
       </c>
       <c r="E44" t="n">
-        <v>230.4785413956638</v>
+        <v>230.4785413956639</v>
       </c>
       <c r="F44" t="n">
-        <v>163.1041998361437</v>
+        <v>249.650357483641</v>
       </c>
       <c r="G44" t="n">
         <v>251.5836253810635</v>
       </c>
       <c r="H44" t="n">
-        <v>169.1337403593734</v>
+        <v>82.58758271187503</v>
       </c>
       <c r="I44" t="n">
-        <v>10.72970550400157</v>
+        <v>10.7297055040016</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>24.9973643166592</v>
+        <v>24.99736431665923</v>
       </c>
       <c r="T44" t="n">
-        <v>61.75603550700856</v>
+        <v>61.75603550700859</v>
       </c>
       <c r="U44" t="n">
-        <v>91.97716162385552</v>
+        <v>91.97716162385555</v>
       </c>
       <c r="V44" t="n">
         <v>173.2501600637277</v>
@@ -4071,7 +4071,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>84.37298759326568</v>
       </c>
       <c r="I45" t="n">
         <v>67.69846245683961</v>
@@ -4107,7 +4107,7 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T45" t="n">
-        <v>172.2327615101711</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U45" t="n">
         <v>216.3098444776729</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.36049369824565</v>
+        <v>21.36049369824568</v>
       </c>
       <c r="C46" t="n">
-        <v>7.56048854364613</v>
+        <v>7.560488543646159</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.871229846538114</v>
+        <v>6.871229846538142</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>51.21334367105894</v>
+        <v>51.21334367105896</v>
       </c>
       <c r="T46" t="n">
-        <v>70.48784235318757</v>
+        <v>70.4878423531876</v>
       </c>
       <c r="U46" t="n">
-        <v>123.9590158165007</v>
+        <v>123.9590158165008</v>
       </c>
       <c r="V46" t="n">
-        <v>97.76863009787124</v>
+        <v>97.76863009787127</v>
       </c>
       <c r="W46" t="n">
         <v>122.9355161684845</v>
       </c>
       <c r="X46" t="n">
-        <v>68.58061816428761</v>
+        <v>68.58061816428764</v>
       </c>
       <c r="Y46" t="n">
-        <v>59.4554859203553</v>
+        <v>59.45548592035533</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1157.642923754651</v>
+        <v>394.8525691751184</v>
       </c>
       <c r="C2" t="n">
-        <v>775.7091650874581</v>
+        <v>394.8525691751184</v>
       </c>
       <c r="D2" t="n">
-        <v>402.8852003146817</v>
+        <v>394.8525691751184</v>
       </c>
       <c r="E2" t="n">
-        <v>62.03129477242764</v>
+        <v>394.8525691751184</v>
       </c>
       <c r="F2" t="n">
-        <v>51.92050812300203</v>
+        <v>384.7417825256928</v>
       </c>
       <c r="G2" t="n">
-        <v>39.85692561759407</v>
+        <v>372.6782000202849</v>
       </c>
       <c r="H2" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="I2" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="J2" t="n">
-        <v>39.85692561759407</v>
+        <v>111.8554698903998</v>
       </c>
       <c r="K2" t="n">
-        <v>245.796648238529</v>
+        <v>245.7966482385313</v>
       </c>
       <c r="L2" t="n">
-        <v>593.6820213234753</v>
+        <v>593.6820213234776</v>
       </c>
       <c r="M2" t="n">
-        <v>986.9211875765632</v>
+        <v>986.9211875765654</v>
       </c>
       <c r="N2" t="n">
-        <v>1365.252546264279</v>
+        <v>1365.252546264281</v>
       </c>
       <c r="O2" t="n">
-        <v>1670.257130737113</v>
+        <v>1670.257130737115</v>
       </c>
       <c r="P2" t="n">
-        <v>1898.414027193166</v>
+        <v>1898.414027193168</v>
       </c>
       <c r="Q2" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879705</v>
       </c>
       <c r="R2" t="n">
-        <v>1902.207994375556</v>
+        <v>1902.207994375559</v>
       </c>
       <c r="S2" t="n">
-        <v>1902.207994375556</v>
+        <v>1714.979019005913</v>
       </c>
       <c r="T2" t="n">
-        <v>1902.207994375556</v>
+        <v>1490.620072736924</v>
       </c>
       <c r="U2" t="n">
-        <v>1902.207994375556</v>
+        <v>1235.734736450918</v>
       </c>
       <c r="V2" t="n">
-        <v>1902.207994375556</v>
+        <v>898.7554623468591</v>
       </c>
       <c r="W2" t="n">
-        <v>1539.673064233157</v>
+        <v>536.2205322044601</v>
       </c>
       <c r="X2" t="n">
-        <v>1157.642923754651</v>
+        <v>536.2205322044601</v>
       </c>
       <c r="Y2" t="n">
-        <v>1157.642923754651</v>
+        <v>394.8525691751184</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>705.4541493111228</v>
+        <v>657.5281559072909</v>
       </c>
       <c r="C3" t="n">
-        <v>705.4541493111228</v>
+        <v>657.5281559072909</v>
       </c>
       <c r="D3" t="n">
-        <v>618.627376350805</v>
+        <v>518.6895188975029</v>
       </c>
       <c r="E3" t="n">
-        <v>471.5993664076761</v>
+        <v>371.6615089543742</v>
       </c>
       <c r="F3" t="n">
-        <v>336.9055683575505</v>
+        <v>236.9677109042485</v>
       </c>
       <c r="G3" t="n">
-        <v>208.177068380835</v>
+        <v>108.2392109275331</v>
       </c>
       <c r="H3" t="n">
         <v>108.2392109275331</v>
       </c>
       <c r="I3" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="J3" t="n">
-        <v>100.1110721507002</v>
+        <v>100.1110721507003</v>
       </c>
       <c r="K3" t="n">
         <v>329.6016247108889</v>
       </c>
       <c r="L3" t="n">
-        <v>695.4234698810045</v>
+        <v>695.4234698810046</v>
       </c>
       <c r="M3" t="n">
-        <v>1107.416875577826</v>
+        <v>695.4234698810046</v>
       </c>
       <c r="N3" t="n">
-        <v>1600.646330095552</v>
+        <v>1140.778781034263</v>
       </c>
       <c r="O3" t="n">
-        <v>1992.846280879703</v>
+        <v>1532.978731818414</v>
       </c>
       <c r="P3" t="n">
-        <v>1992.846280879703</v>
+        <v>1835.074651094111</v>
       </c>
       <c r="Q3" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879705</v>
       </c>
       <c r="R3" t="n">
-        <v>1933.062011974649</v>
+        <v>1933.062011974651</v>
       </c>
       <c r="S3" t="n">
-        <v>1780.262524987389</v>
+        <v>1842.961431948549</v>
       </c>
       <c r="T3" t="n">
-        <v>1591.577421153374</v>
+        <v>1654.276328114534</v>
       </c>
       <c r="U3" t="n">
-        <v>1373.082628751684</v>
+        <v>1435.781535712845</v>
       </c>
       <c r="V3" t="n">
-        <v>1144.687006200018</v>
+        <v>1207.385913161178</v>
       </c>
       <c r="W3" t="n">
-        <v>903.3711374333283</v>
+        <v>1207.385913161178</v>
       </c>
       <c r="X3" t="n">
-        <v>705.4541493111228</v>
+        <v>1009.468925038973</v>
       </c>
       <c r="Y3" t="n">
-        <v>705.4541493111228</v>
+        <v>816.9475986885518</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.3788295172155</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="C4" t="n">
-        <v>533.3788295172155</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="D4" t="n">
-        <v>533.3788295172155</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="E4" t="n">
-        <v>495.9132702098646</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="F4" t="n">
-        <v>343.4326152356417</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="G4" t="n">
-        <v>343.4326152356417</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="H4" t="n">
-        <v>184.0599700149156</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="I4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="J4" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="K4" t="n">
-        <v>73.46111336223748</v>
+        <v>73.46111336223751</v>
       </c>
       <c r="L4" t="n">
         <v>174.068192762497</v>
@@ -4507,31 +4507,31 @@
         <v>571.9161708635265</v>
       </c>
       <c r="Q4" t="n">
-        <v>533.3788295172155</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="R4" t="n">
-        <v>533.3788295172155</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="S4" t="n">
-        <v>533.3788295172155</v>
+        <v>560.2261183128154</v>
       </c>
       <c r="T4" t="n">
-        <v>533.3788295172155</v>
+        <v>327.0471651284943</v>
       </c>
       <c r="U4" t="n">
-        <v>533.3788295172155</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="V4" t="n">
-        <v>533.3788295172155</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="W4" t="n">
-        <v>533.3788295172155</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="X4" t="n">
-        <v>533.3788295172155</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="Y4" t="n">
-        <v>533.3788295172155</v>
+        <v>39.85692561759411</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>340.4997476523413</v>
+        <v>738.030002422042</v>
       </c>
       <c r="C5" t="n">
-        <v>62.03129477242764</v>
+        <v>738.030002422042</v>
       </c>
       <c r="D5" t="n">
-        <v>62.03129477242764</v>
+        <v>365.2060376492656</v>
       </c>
       <c r="E5" t="n">
-        <v>62.03129477242764</v>
+        <v>365.2060376492656</v>
       </c>
       <c r="F5" t="n">
-        <v>51.92050812300203</v>
+        <v>355.0952509998399</v>
       </c>
       <c r="G5" t="n">
-        <v>39.85692561759407</v>
+        <v>343.031668494432</v>
       </c>
       <c r="H5" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="I5" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="J5" t="n">
-        <v>39.85692561759407</v>
+        <v>111.8554698903998</v>
       </c>
       <c r="K5" t="n">
-        <v>245.796648238529</v>
+        <v>351.9958419351825</v>
       </c>
       <c r="L5" t="n">
-        <v>593.6820213234753</v>
+        <v>699.8812150201288</v>
       </c>
       <c r="M5" t="n">
-        <v>986.9211875765632</v>
+        <v>1093.120381273217</v>
       </c>
       <c r="N5" t="n">
-        <v>1365.252546264279</v>
+        <v>1471.451739960932</v>
       </c>
       <c r="O5" t="n">
-        <v>1670.257130737113</v>
+        <v>1776.456324433766</v>
       </c>
       <c r="P5" t="n">
-        <v>1898.414027193166</v>
+        <v>1992.846280879705</v>
       </c>
       <c r="Q5" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879705</v>
       </c>
       <c r="R5" t="n">
-        <v>1902.207994375556</v>
+        <v>1992.846280879705</v>
       </c>
       <c r="S5" t="n">
-        <v>1714.97901900591</v>
+        <v>1992.846280879705</v>
       </c>
       <c r="T5" t="n">
-        <v>1490.620072736921</v>
+        <v>1768.487334610717</v>
       </c>
       <c r="U5" t="n">
-        <v>1490.620072736921</v>
+        <v>1513.601998324711</v>
       </c>
       <c r="V5" t="n">
-        <v>1490.620072736921</v>
+        <v>1513.601998324711</v>
       </c>
       <c r="W5" t="n">
-        <v>1128.085142594522</v>
+        <v>1513.601998324711</v>
       </c>
       <c r="X5" t="n">
-        <v>1128.085142594522</v>
+        <v>1131.571857846204</v>
       </c>
       <c r="Y5" t="n">
-        <v>734.5432871703605</v>
+        <v>738.030002422042</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>919.1696861196382</v>
+        <v>750.8495433563971</v>
       </c>
       <c r="C6" t="n">
-        <v>757.4660133605929</v>
+        <v>589.1458705973519</v>
       </c>
       <c r="D6" t="n">
-        <v>618.627376350805</v>
+        <v>450.307233587564</v>
       </c>
       <c r="E6" t="n">
-        <v>471.5993664076761</v>
+        <v>303.2792236444352</v>
       </c>
       <c r="F6" t="n">
-        <v>336.9055683575505</v>
+        <v>168.5854255943095</v>
       </c>
       <c r="G6" t="n">
-        <v>208.177068380835</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="H6" t="n">
-        <v>108.2392109275331</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="I6" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="J6" t="n">
-        <v>100.1110721507002</v>
+        <v>100.1110721507003</v>
       </c>
       <c r="K6" t="n">
         <v>329.6016247108889</v>
       </c>
       <c r="L6" t="n">
-        <v>695.4234698810045</v>
+        <v>695.4234698810046</v>
       </c>
       <c r="M6" t="n">
         <v>1180.456823391231</v>
       </c>
       <c r="N6" t="n">
-        <v>1673.686277908957</v>
+        <v>1180.456823391231</v>
       </c>
       <c r="O6" t="n">
-        <v>1992.846280879703</v>
+        <v>1532.978731818414</v>
       </c>
       <c r="P6" t="n">
-        <v>1992.846280879703</v>
+        <v>1835.074651094111</v>
       </c>
       <c r="Q6" t="n">
-        <v>1992.846280879703</v>
+        <v>1992.846280879705</v>
       </c>
       <c r="R6" t="n">
-        <v>1992.846280879703</v>
+        <v>1933.062011974651</v>
       </c>
       <c r="S6" t="n">
-        <v>1992.846280879703</v>
+        <v>1780.262524987391</v>
       </c>
       <c r="T6" t="n">
-        <v>1992.846280879703</v>
+        <v>1591.577421153376</v>
       </c>
       <c r="U6" t="n">
-        <v>1938.738934691881</v>
+        <v>1591.577421153376</v>
       </c>
       <c r="V6" t="n">
-        <v>1710.343312140215</v>
+        <v>1542.023169376974</v>
       </c>
       <c r="W6" t="n">
-        <v>1469.027443373526</v>
+        <v>1300.707300610284</v>
       </c>
       <c r="X6" t="n">
-        <v>1271.11045525132</v>
+        <v>1102.790312488079</v>
       </c>
       <c r="Y6" t="n">
-        <v>1078.589128900899</v>
+        <v>910.268986137658</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4699,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="C7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="D7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="E7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="F7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="G7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="H7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="I7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="J7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="K7" t="n">
-        <v>73.46111336223748</v>
+        <v>73.46111336223751</v>
       </c>
       <c r="L7" t="n">
         <v>174.068192762497</v>
@@ -4744,31 +4744,31 @@
         <v>571.9161708635265</v>
       </c>
       <c r="Q7" t="n">
-        <v>533.3788295172155</v>
+        <v>571.9161708635265</v>
       </c>
       <c r="R7" t="n">
-        <v>533.3788295172155</v>
+        <v>504.2883429065395</v>
       </c>
       <c r="S7" t="n">
-        <v>533.3788295172155</v>
+        <v>504.2883429065395</v>
       </c>
       <c r="T7" t="n">
-        <v>300.1998763328944</v>
+        <v>271.1093897222183</v>
       </c>
       <c r="U7" t="n">
-        <v>300.1998763328944</v>
+        <v>271.1093897222183</v>
       </c>
       <c r="V7" t="n">
-        <v>39.85692561759407</v>
+        <v>271.1093897222183</v>
       </c>
       <c r="W7" t="n">
-        <v>39.85692561759407</v>
+        <v>271.1093897222183</v>
       </c>
       <c r="X7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.85692561759407</v>
+        <v>39.85692561759411</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>455.9089368934352</v>
+        <v>658.665867138795</v>
       </c>
       <c r="C8" t="n">
-        <v>73.97517822624258</v>
+        <v>658.665867138795</v>
       </c>
       <c r="D8" t="n">
-        <v>64.19862525603281</v>
+        <v>285.8419023660185</v>
       </c>
       <c r="E8" t="n">
-        <v>64.19862525603281</v>
+        <v>285.8419023660185</v>
       </c>
       <c r="F8" t="n">
-        <v>54.08783860660719</v>
+        <v>275.7311157165929</v>
       </c>
       <c r="G8" t="n">
         <v>42.02425610119923</v>
@@ -4826,28 +4826,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1913.983829690315</v>
       </c>
       <c r="T8" t="n">
-        <v>1823.345543186168</v>
+        <v>1689.624883421327</v>
       </c>
       <c r="U8" t="n">
-        <v>1568.460206900163</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="V8" t="n">
-        <v>1231.480932796104</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="W8" t="n">
-        <v>1231.480932796104</v>
+        <v>1434.739547135321</v>
       </c>
       <c r="X8" t="n">
-        <v>849.4507923175972</v>
+        <v>1052.709406656814</v>
       </c>
       <c r="Y8" t="n">
-        <v>455.9089368934352</v>
+        <v>1052.709406656814</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>921.3370166032433</v>
+        <v>621.2993471409599</v>
       </c>
       <c r="C9" t="n">
-        <v>759.6333438441981</v>
+        <v>621.2993471409599</v>
       </c>
       <c r="D9" t="n">
-        <v>620.7947068344101</v>
+        <v>482.4607101311719</v>
       </c>
       <c r="E9" t="n">
-        <v>473.7666968912813</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F9" t="n">
-        <v>339.0728988411556</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G9" t="n">
-        <v>210.3443988644402</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4065414111382</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I9" t="n">
         <v>42.02425610119923</v>
@@ -4890,13 +4890,13 @@
         <v>697.5908003646097</v>
       </c>
       <c r="M9" t="n">
-        <v>737.8796590913968</v>
+        <v>1039.975578367094</v>
       </c>
       <c r="N9" t="n">
-        <v>1249.145305214519</v>
+        <v>1551.241224490216</v>
       </c>
       <c r="O9" t="n">
-        <v>1641.34525599867</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="P9" t="n">
         <v>1943.441175274367</v>
@@ -4905,28 +4905,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S9" t="n">
-        <v>2101.212805059961</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T9" t="n">
-        <v>2101.212805059961</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U9" t="n">
-        <v>1940.906265175487</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V9" t="n">
-        <v>1712.510642623821</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W9" t="n">
-        <v>1471.194773857131</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X9" t="n">
-        <v>1273.277785734925</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y9" t="n">
-        <v>1080.756459384504</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C10" t="n">
-        <v>516.0249121442677</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D10" t="n">
-        <v>362.9530189720304</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E10" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F10" t="n">
-        <v>210.9440047333492</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G10" t="n">
         <v>42.02425610119923</v>
@@ -4996,16 +4996,16 @@
         <v>574.0835013471317</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>313.3481969055543</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y10" t="n">
-        <v>574.0835013471317</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1185.431318985809</v>
+        <v>896.7362225459449</v>
       </c>
       <c r="C11" t="n">
-        <v>1185.431318985809</v>
+        <v>629.3783886345186</v>
       </c>
       <c r="D11" t="n">
-        <v>927.1832789687994</v>
+        <v>629.3783886345186</v>
       </c>
       <c r="E11" t="n">
-        <v>927.1832789687994</v>
+        <v>349.1685934963918</v>
       </c>
       <c r="F11" t="n">
-        <v>627.608013034736</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="G11" t="n">
-        <v>326.0799512446904</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="H11" t="n">
-        <v>107.8346015977661</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="I11" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J11" t="n">
-        <v>132.1275026206758</v>
+        <v>121.5918718351342</v>
       </c>
       <c r="K11" t="n">
-        <v>372.2678746654586</v>
+        <v>361.732243879917</v>
       </c>
       <c r="L11" t="n">
-        <v>832.4491116035314</v>
+        <v>709.6176169648631</v>
       </c>
       <c r="M11" t="n">
-        <v>1337.984141709746</v>
+        <v>1215.152647071078</v>
       </c>
       <c r="N11" t="n">
-        <v>1716.315500397462</v>
+        <v>1705.77986961192</v>
       </c>
       <c r="O11" t="n">
-        <v>2021.320084870296</v>
+        <v>2123.080317937881</v>
       </c>
       <c r="P11" t="n">
-        <v>2249.476981326349</v>
+        <v>2385.23412442989</v>
       </c>
       <c r="Q11" t="n">
-        <v>2456.205098866013</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R11" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="S11" t="n">
-        <v>2479.666378116425</v>
+        <v>2407.013327502547</v>
       </c>
       <c r="T11" t="n">
-        <v>2479.666378116425</v>
+        <v>2297.230305989325</v>
       </c>
       <c r="U11" t="n">
-        <v>2339.356966586186</v>
+        <v>2156.920894459085</v>
       </c>
       <c r="V11" t="n">
-        <v>2116.953617237894</v>
+        <v>1970.582989085966</v>
       </c>
       <c r="W11" t="n">
-        <v>1868.994611851261</v>
+        <v>1722.623983699334</v>
       </c>
       <c r="X11" t="n">
-        <v>1601.540396128521</v>
+        <v>1455.169767976593</v>
       </c>
       <c r="Y11" t="n">
-        <v>1464.898933748062</v>
+        <v>1176.203837308198</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>900.1177463212177</v>
+        <v>840.3334774161644</v>
       </c>
       <c r="C12" t="n">
-        <v>738.4140735621725</v>
+        <v>678.6298046571192</v>
       </c>
       <c r="D12" t="n">
-        <v>599.5754365523845</v>
+        <v>539.7911676473312</v>
       </c>
       <c r="E12" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577042025</v>
       </c>
       <c r="F12" t="n">
-        <v>346.6419703022849</v>
+        <v>258.0693596540768</v>
       </c>
       <c r="G12" t="n">
-        <v>217.9134703255694</v>
+        <v>217.9134703255695</v>
       </c>
       <c r="H12" t="n">
         <v>117.9756128722675</v>
       </c>
       <c r="I12" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J12" t="n">
-        <v>109.8474740954346</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="K12" t="n">
-        <v>339.3380266556233</v>
+        <v>279.0838801225172</v>
       </c>
       <c r="L12" t="n">
-        <v>705.1598718257389</v>
+        <v>644.9057252926328</v>
       </c>
       <c r="M12" t="n">
-        <v>1190.193225335966</v>
+        <v>1129.939078802859</v>
       </c>
       <c r="N12" t="n">
-        <v>1701.458871459088</v>
+        <v>1627.598878270984</v>
       </c>
       <c r="O12" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055135</v>
       </c>
       <c r="P12" t="n">
-        <v>2395.754741518936</v>
+        <v>2321.894748330832</v>
       </c>
       <c r="Q12" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R12" t="n">
-        <v>2479.666378116425</v>
+        <v>2419.882109211372</v>
       </c>
       <c r="S12" t="n">
-        <v>2326.866891129166</v>
+        <v>2267.082622224113</v>
       </c>
       <c r="T12" t="n">
-        <v>2138.181787295151</v>
+        <v>2078.397518390098</v>
       </c>
       <c r="U12" t="n">
-        <v>1919.686994893461</v>
+        <v>1859.902725988408</v>
       </c>
       <c r="V12" t="n">
-        <v>1691.291372341795</v>
+        <v>1631.507103436742</v>
       </c>
       <c r="W12" t="n">
-        <v>1449.975503575105</v>
+        <v>1390.191234670052</v>
       </c>
       <c r="X12" t="n">
-        <v>1252.0585154529</v>
+        <v>1192.274246547847</v>
       </c>
       <c r="Y12" t="n">
-        <v>1059.537189102479</v>
+        <v>999.7529201974254</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.2348244456228</v>
+        <v>347.2348244456221</v>
       </c>
       <c r="C13" t="n">
-        <v>292.1947796630694</v>
+        <v>292.1947796630688</v>
       </c>
       <c r="D13" t="n">
-        <v>253.6988112465984</v>
+        <v>253.6988112465979</v>
       </c>
       <c r="E13" t="n">
-        <v>216.2657217636836</v>
+        <v>216.2657217636831</v>
       </c>
       <c r="F13" t="n">
-        <v>178.3609915452271</v>
+        <v>178.3609915452266</v>
       </c>
       <c r="G13" t="n">
-        <v>124.0171676688435</v>
+        <v>124.017167668843</v>
       </c>
       <c r="H13" t="n">
-        <v>79.22044720388368</v>
+        <v>79.22044720388362</v>
       </c>
       <c r="I13" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J13" t="n">
-        <v>103.0270918774858</v>
+        <v>103.0270918774861</v>
       </c>
       <c r="K13" t="n">
-        <v>248.9271434752559</v>
+        <v>248.9271434752561</v>
       </c>
       <c r="L13" t="n">
-        <v>461.8300867286421</v>
+        <v>461.8300867286423</v>
       </c>
       <c r="M13" t="n">
-        <v>692.1194567093703</v>
+        <v>692.1194567093706</v>
       </c>
       <c r="N13" t="n">
-        <v>922.8376623120973</v>
+        <v>922.8376623120976</v>
       </c>
       <c r="O13" t="n">
         <v>1133.597172660914</v>
@@ -5230,19 +5230,19 @@
         <v>1130.704212942829</v>
       </c>
       <c r="U13" t="n">
-        <v>958.0898981876952</v>
+        <v>958.0898981876954</v>
       </c>
       <c r="V13" t="n">
-        <v>811.9305185018842</v>
+        <v>811.9305185018844</v>
       </c>
       <c r="W13" t="n">
-        <v>640.3500417750506</v>
+        <v>640.3500417750499</v>
       </c>
       <c r="X13" t="n">
-        <v>523.6735024261928</v>
+        <v>523.673502426192</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2142683742363</v>
+        <v>416.2142683742355</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1405.819611576404</v>
+        <v>1093.019817071752</v>
       </c>
       <c r="C14" t="n">
-        <v>1138.461777664978</v>
+        <v>825.6619831603263</v>
       </c>
       <c r="D14" t="n">
-        <v>880.2137376479679</v>
+        <v>567.4139431433161</v>
       </c>
       <c r="E14" t="n">
-        <v>650.6966552864374</v>
+        <v>567.4139431433161</v>
       </c>
       <c r="F14" t="n">
-        <v>351.1213893523742</v>
+        <v>267.8386772092529</v>
       </c>
       <c r="G14" t="n">
-        <v>49.5933275623285</v>
+        <v>267.8386772092529</v>
       </c>
       <c r="H14" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="I14" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J14" t="n">
         <v>233.8877356882608</v>
       </c>
       <c r="K14" t="n">
-        <v>586.3239715861702</v>
+        <v>586.3239715861703</v>
       </c>
       <c r="L14" t="n">
-        <v>1046.505208524243</v>
+        <v>934.2093446711165</v>
       </c>
       <c r="M14" t="n">
-        <v>1450.280005562873</v>
+        <v>1439.744374777331</v>
       </c>
       <c r="N14" t="n">
-        <v>1828.611364250588</v>
+        <v>1852.072643501002</v>
       </c>
       <c r="O14" t="n">
-        <v>2133.615948723422</v>
+        <v>2157.077227973836</v>
       </c>
       <c r="P14" t="n">
-        <v>2361.772845179476</v>
+        <v>2385.23412442989</v>
       </c>
       <c r="Q14" t="n">
-        <v>2456.205098866013</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R14" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="S14" t="n">
-        <v>2479.666378116425</v>
+        <v>2407.013327502547</v>
       </c>
       <c r="T14" t="n">
-        <v>2479.666378116425</v>
+        <v>2297.230305989325</v>
       </c>
       <c r="U14" t="n">
-        <v>2479.666378116425</v>
+        <v>2156.920894459085</v>
       </c>
       <c r="V14" t="n">
-        <v>2479.666378116425</v>
+        <v>1934.517545110793</v>
       </c>
       <c r="W14" t="n">
-        <v>2231.707372729792</v>
+        <v>1686.55853972416</v>
       </c>
       <c r="X14" t="n">
-        <v>1964.253157007052</v>
+        <v>1419.10432400142</v>
       </c>
       <c r="Y14" t="n">
-        <v>1685.287226338657</v>
+        <v>1140.138393333024</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>928.9060880643725</v>
+        <v>840.3334774161644</v>
       </c>
       <c r="C15" t="n">
-        <v>767.2024153053272</v>
+        <v>678.6298046571192</v>
       </c>
       <c r="D15" t="n">
-        <v>628.3637782955393</v>
+        <v>539.7911676473312</v>
       </c>
       <c r="E15" t="n">
-        <v>481.3357683524106</v>
+        <v>392.7631577042025</v>
       </c>
       <c r="F15" t="n">
-        <v>346.6419703022849</v>
+        <v>258.0693596540768</v>
       </c>
       <c r="G15" t="n">
-        <v>217.9134703255694</v>
+        <v>129.3408596773614</v>
       </c>
       <c r="H15" t="n">
         <v>117.9756128722675</v>
       </c>
       <c r="I15" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J15" t="n">
-        <v>49.5933275623285</v>
+        <v>109.8474740954347</v>
       </c>
       <c r="K15" t="n">
-        <v>265.478033467519</v>
+        <v>339.3380266556234</v>
       </c>
       <c r="L15" t="n">
-        <v>631.2998786376346</v>
+        <v>705.1598718257389</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.333232147861</v>
+        <v>1190.193225335966</v>
       </c>
       <c r="N15" t="n">
-        <v>1627.598878270983</v>
+        <v>1701.458871459088</v>
       </c>
       <c r="O15" t="n">
-        <v>2019.798829055134</v>
+        <v>2093.658822243239</v>
       </c>
       <c r="P15" t="n">
-        <v>2321.894748330831</v>
+        <v>2395.754741518936</v>
       </c>
       <c r="Q15" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R15" t="n">
-        <v>2419.882109211371</v>
+        <v>2419.882109211372</v>
       </c>
       <c r="S15" t="n">
-        <v>2267.082622224111</v>
+        <v>2267.082622224113</v>
       </c>
       <c r="T15" t="n">
-        <v>2166.970129038306</v>
+        <v>2078.397518390098</v>
       </c>
       <c r="U15" t="n">
-        <v>1948.475336636616</v>
+        <v>1859.902725988408</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.07971408495</v>
+        <v>1631.507103436742</v>
       </c>
       <c r="W15" t="n">
-        <v>1478.76384531826</v>
+        <v>1390.191234670052</v>
       </c>
       <c r="X15" t="n">
-        <v>1280.846857196055</v>
+        <v>1192.274246547847</v>
       </c>
       <c r="Y15" t="n">
-        <v>1088.325530845633</v>
+        <v>999.7529201974254</v>
       </c>
     </row>
     <row r="16">
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>347.234824445622</v>
+        <v>347.2348244456223</v>
       </c>
       <c r="C16" t="n">
-        <v>292.1947796630688</v>
+        <v>292.194779663069</v>
       </c>
       <c r="D16" t="n">
         <v>253.6988112465983</v>
@@ -5428,25 +5428,25 @@
         <v>124.0171676688434</v>
       </c>
       <c r="H16" t="n">
-        <v>79.22044720388365</v>
+        <v>79.22044720388357</v>
       </c>
       <c r="I16" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J16" t="n">
-        <v>103.0270918774858</v>
+        <v>103.0270918774859</v>
       </c>
       <c r="K16" t="n">
-        <v>248.9271434752558</v>
+        <v>248.9271434752559</v>
       </c>
       <c r="L16" t="n">
-        <v>461.8300867286418</v>
+        <v>461.8300867286421</v>
       </c>
       <c r="M16" t="n">
-        <v>692.1194567093703</v>
+        <v>692.1194567093705</v>
       </c>
       <c r="N16" t="n">
-        <v>922.8376623120973</v>
+        <v>922.8376623120978</v>
       </c>
       <c r="O16" t="n">
         <v>1133.597172660914</v>
@@ -5455,7 +5455,7 @@
         <v>1308.861520242178</v>
       </c>
       <c r="Q16" t="n">
-        <v>1383.386935841785</v>
+        <v>1383.386935841786</v>
       </c>
       <c r="R16" t="n">
         <v>1348.44107921193</v>
@@ -5464,22 +5464,22 @@
         <v>1249.307241371384</v>
       </c>
       <c r="T16" t="n">
-        <v>1130.704212942829</v>
+        <v>1130.70421294283</v>
       </c>
       <c r="U16" t="n">
-        <v>958.0898981876952</v>
+        <v>958.0898981876959</v>
       </c>
       <c r="V16" t="n">
-        <v>811.9305185018842</v>
+        <v>811.9305185018849</v>
       </c>
       <c r="W16" t="n">
-        <v>640.3500417750497</v>
+        <v>640.3500417750504</v>
       </c>
       <c r="X16" t="n">
-        <v>523.6735024261918</v>
+        <v>523.6735024261926</v>
       </c>
       <c r="Y16" t="n">
-        <v>416.2142683742354</v>
+        <v>416.2142683742361</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1325.912468951886</v>
+        <v>1325.912468951887</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.709846338099</v>
+        <v>1116.7098463381</v>
       </c>
       <c r="D17" t="n">
-        <v>916.6170176187288</v>
+        <v>916.6170176187291</v>
       </c>
       <c r="E17" t="n">
-        <v>694.5624337782415</v>
+        <v>694.5624337782417</v>
       </c>
       <c r="F17" t="n">
-        <v>453.1423791418177</v>
+        <v>453.1423791418178</v>
       </c>
       <c r="G17" t="n">
         <v>209.7695286494115</v>
       </c>
       <c r="H17" t="n">
-        <v>49.67939030012663</v>
+        <v>49.67939030012674</v>
       </c>
       <c r="I17" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J17" t="n">
         <v>121.5918718351342</v>
@@ -5519,46 +5519,46 @@
         <v>361.732243879917</v>
       </c>
       <c r="L17" t="n">
-        <v>709.6176169648631</v>
+        <v>830.7491302710266</v>
       </c>
       <c r="M17" t="n">
-        <v>1102.856783217951</v>
+        <v>1223.988296524115</v>
       </c>
       <c r="N17" t="n">
-        <v>1481.188141905667</v>
+        <v>1771.613441657773</v>
       </c>
       <c r="O17" t="n">
-        <v>1955.486512824444</v>
+        <v>2076.618026130607</v>
       </c>
       <c r="P17" t="n">
-        <v>2352.93719572644</v>
+        <v>2304.774922586661</v>
       </c>
       <c r="Q17" t="n">
-        <v>2447.369449412977</v>
+        <v>2399.207176273198</v>
       </c>
       <c r="R17" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.168538800185</v>
+        <v>2465.168538800186</v>
       </c>
       <c r="T17" t="n">
-        <v>2413.540728584602</v>
+        <v>2413.540728584603</v>
       </c>
       <c r="U17" t="n">
-        <v>2331.386528352002</v>
+        <v>2331.386528352003</v>
       </c>
       <c r="V17" t="n">
-        <v>2167.138390301349</v>
+        <v>2167.13839030135</v>
       </c>
       <c r="W17" t="n">
-        <v>1977.334596212356</v>
+        <v>1977.334596212357</v>
       </c>
       <c r="X17" t="n">
-        <v>1768.035591787255</v>
+        <v>1768.035591787256</v>
       </c>
       <c r="Y17" t="n">
-        <v>1547.224872416499</v>
+        <v>1547.2248724165</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>900.1177463212177</v>
+        <v>840.3334774161644</v>
       </c>
       <c r="C18" t="n">
-        <v>738.4140735621725</v>
+        <v>678.6298046571192</v>
       </c>
       <c r="D18" t="n">
-        <v>599.5754365523845</v>
+        <v>539.7911676473312</v>
       </c>
       <c r="E18" t="n">
-        <v>452.5474266092558</v>
+        <v>392.7631577042025</v>
       </c>
       <c r="F18" t="n">
-        <v>317.8536285591301</v>
+        <v>346.6419703022849</v>
       </c>
       <c r="G18" t="n">
-        <v>189.1251285824147</v>
+        <v>217.9134703255695</v>
       </c>
       <c r="H18" t="n">
-        <v>89.18727112911274</v>
+        <v>117.9756128722675</v>
       </c>
       <c r="I18" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J18" t="n">
-        <v>49.5933275623285</v>
+        <v>109.8474740954347</v>
       </c>
       <c r="K18" t="n">
-        <v>279.0838801225171</v>
+        <v>265.4780334675203</v>
       </c>
       <c r="L18" t="n">
-        <v>644.9057252926327</v>
+        <v>631.299878637636</v>
       </c>
       <c r="M18" t="n">
-        <v>1129.939078802859</v>
+        <v>1116.333232147862</v>
       </c>
       <c r="N18" t="n">
-        <v>1641.204724925981</v>
+        <v>1627.598878270984</v>
       </c>
       <c r="O18" t="n">
-        <v>2033.404675710132</v>
+        <v>2019.798829055135</v>
       </c>
       <c r="P18" t="n">
-        <v>2335.50059498583</v>
+        <v>2321.894748330832</v>
       </c>
       <c r="Q18" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R18" t="n">
-        <v>2479.666378116425</v>
+        <v>2419.882109211372</v>
       </c>
       <c r="S18" t="n">
-        <v>2326.866891129166</v>
+        <v>2267.082622224113</v>
       </c>
       <c r="T18" t="n">
-        <v>2138.181787295151</v>
+        <v>2078.397518390098</v>
       </c>
       <c r="U18" t="n">
-        <v>1919.686994893461</v>
+        <v>1859.902725988408</v>
       </c>
       <c r="V18" t="n">
-        <v>1691.291372341795</v>
+        <v>1631.507103436742</v>
       </c>
       <c r="W18" t="n">
-        <v>1449.975503575105</v>
+        <v>1390.191234670052</v>
       </c>
       <c r="X18" t="n">
-        <v>1252.0585154529</v>
+        <v>1192.274246547847</v>
       </c>
       <c r="Y18" t="n">
-        <v>1059.537189102479</v>
+        <v>999.7529201974254</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="C19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="D19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="E19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="F19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="G19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="H19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="I19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J19" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="K19" t="n">
-        <v>83.19751530697192</v>
+        <v>83.19751530697195</v>
       </c>
       <c r="L19" t="n">
         <v>183.8045947072314</v>
       </c>
       <c r="M19" t="n">
-        <v>301.7981008348332</v>
+        <v>305.7034199740935</v>
       </c>
       <c r="N19" t="n">
-        <v>420.2204425844336</v>
+        <v>424.1257617236939</v>
       </c>
       <c r="O19" t="n">
-        <v>518.6840890801233</v>
+        <v>522.5894082193836</v>
       </c>
       <c r="P19" t="n">
-        <v>585.5578919475205</v>
+        <v>585.5578919475214</v>
       </c>
       <c r="Q19" t="n">
-        <v>585.5578919475205</v>
+        <v>585.5578919475214</v>
       </c>
       <c r="R19" t="n">
-        <v>585.5578919475205</v>
+        <v>585.5578919475214</v>
       </c>
       <c r="S19" t="n">
-        <v>544.5792654046139</v>
+        <v>544.5792654046147</v>
       </c>
       <c r="T19" t="n">
-        <v>484.1314482736987</v>
+        <v>484.1314482736993</v>
       </c>
       <c r="U19" t="n">
-        <v>369.6723448162044</v>
+        <v>369.6723448162049</v>
       </c>
       <c r="V19" t="n">
-        <v>281.6681764280329</v>
+        <v>281.6681764280333</v>
       </c>
       <c r="W19" t="n">
-        <v>168.2429109988379</v>
+        <v>168.2429109988382</v>
       </c>
       <c r="X19" t="n">
-        <v>109.7215829476195</v>
+        <v>109.7215829476197</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.41756019330246</v>
+        <v>60.41756019330258</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1325.912468951886</v>
+        <v>1325.912468951887</v>
       </c>
       <c r="C20" t="n">
-        <v>1116.709846338099</v>
+        <v>1116.709846338101</v>
       </c>
       <c r="D20" t="n">
-        <v>916.6170176187286</v>
+        <v>916.6170176187295</v>
       </c>
       <c r="E20" t="n">
-        <v>694.5624337782413</v>
+        <v>694.5624337782422</v>
       </c>
       <c r="F20" t="n">
-        <v>453.1423791418175</v>
+        <v>453.1423791418184</v>
       </c>
       <c r="G20" t="n">
-        <v>209.7695286494113</v>
+        <v>209.7695286494122</v>
       </c>
       <c r="H20" t="n">
-        <v>49.67939030012663</v>
+        <v>49.67939030012666</v>
       </c>
       <c r="I20" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J20" t="n">
         <v>121.5918718351342</v>
@@ -5756,46 +5756,46 @@
         <v>361.732243879917</v>
       </c>
       <c r="L20" t="n">
-        <v>709.6176169648631</v>
+        <v>830.7491302710266</v>
       </c>
       <c r="M20" t="n">
-        <v>1102.856783217951</v>
+        <v>1223.988296524115</v>
       </c>
       <c r="N20" t="n">
-        <v>1481.188141905667</v>
+        <v>1602.31965521183</v>
       </c>
       <c r="O20" t="n">
-        <v>1786.192726378501</v>
+        <v>2076.618026130607</v>
       </c>
       <c r="P20" t="n">
-        <v>2135.481136140716</v>
+        <v>2304.774922586661</v>
       </c>
       <c r="Q20" t="n">
-        <v>2399.207176273196</v>
+        <v>2399.207176273198</v>
       </c>
       <c r="R20" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.168538800185</v>
+        <v>2465.168538800187</v>
       </c>
       <c r="T20" t="n">
-        <v>2413.540728584602</v>
+        <v>2413.540728584604</v>
       </c>
       <c r="U20" t="n">
-        <v>2331.386528352002</v>
+        <v>2331.386528352003</v>
       </c>
       <c r="V20" t="n">
-        <v>2167.138390301349</v>
+        <v>2167.13839030135</v>
       </c>
       <c r="W20" t="n">
-        <v>1977.334596212356</v>
+        <v>1977.334596212357</v>
       </c>
       <c r="X20" t="n">
-        <v>1768.035591787255</v>
+        <v>1768.035591787256</v>
       </c>
       <c r="Y20" t="n">
-        <v>1547.224872416499</v>
+        <v>1547.2248724165</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>840.3334774161631</v>
+        <v>840.3334774161644</v>
       </c>
       <c r="C21" t="n">
-        <v>678.6298046571178</v>
+        <v>678.6298046571192</v>
       </c>
       <c r="D21" t="n">
-        <v>539.7911676473299</v>
+        <v>539.7911676473312</v>
       </c>
       <c r="E21" t="n">
-        <v>392.7631577042011</v>
+        <v>392.7631577042025</v>
       </c>
       <c r="F21" t="n">
-        <v>258.0693596540755</v>
+        <v>258.0693596540768</v>
       </c>
       <c r="G21" t="n">
-        <v>217.9134703255694</v>
+        <v>149.5311850156305</v>
       </c>
       <c r="H21" t="n">
-        <v>117.9756128722675</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="I21" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J21" t="n">
-        <v>109.8474740954346</v>
+        <v>109.8474740954347</v>
       </c>
       <c r="K21" t="n">
-        <v>339.3380266556233</v>
+        <v>339.3380266556234</v>
       </c>
       <c r="L21" t="n">
         <v>705.1598718257389</v>
       </c>
       <c r="M21" t="n">
-        <v>1190.193225335966</v>
+        <v>1116.333232147862</v>
       </c>
       <c r="N21" t="n">
-        <v>1701.458871459088</v>
+        <v>1627.598878270984</v>
       </c>
       <c r="O21" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055135</v>
       </c>
       <c r="P21" t="n">
-        <v>2395.754741518936</v>
+        <v>2321.894748330832</v>
       </c>
       <c r="Q21" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116427</v>
       </c>
       <c r="R21" t="n">
-        <v>2419.882109211371</v>
+        <v>2419.882109211372</v>
       </c>
       <c r="S21" t="n">
-        <v>2267.082622224111</v>
+        <v>2267.082622224113</v>
       </c>
       <c r="T21" t="n">
-        <v>2078.397518390097</v>
+        <v>2078.397518390098</v>
       </c>
       <c r="U21" t="n">
-        <v>1859.902725988407</v>
+        <v>1859.902725988408</v>
       </c>
       <c r="V21" t="n">
-        <v>1631.507103436741</v>
+        <v>1631.507103436742</v>
       </c>
       <c r="W21" t="n">
-        <v>1390.191234670051</v>
+        <v>1390.191234670052</v>
       </c>
       <c r="X21" t="n">
-        <v>1192.274246547845</v>
+        <v>1192.274246547847</v>
       </c>
       <c r="Y21" t="n">
-        <v>999.752920197424</v>
+        <v>999.7529201974254</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="C22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="D22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="E22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="F22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="G22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="H22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="I22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J22" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="K22" t="n">
-        <v>83.19751530697192</v>
+        <v>83.19751530697195</v>
       </c>
       <c r="L22" t="n">
         <v>183.8045947072314</v>
@@ -5920,31 +5920,31 @@
         <v>301.7981008348332</v>
       </c>
       <c r="N22" t="n">
-        <v>420.2204425844336</v>
+        <v>424.1257617236931</v>
       </c>
       <c r="O22" t="n">
-        <v>518.6840890801233</v>
+        <v>522.5894082193828</v>
       </c>
       <c r="P22" t="n">
-        <v>581.6525728082611</v>
+        <v>585.5578919475206</v>
       </c>
       <c r="Q22" t="n">
-        <v>581.6525728082611</v>
+        <v>585.5578919475206</v>
       </c>
       <c r="R22" t="n">
-        <v>585.5578919475205</v>
+        <v>585.5578919475206</v>
       </c>
       <c r="S22" t="n">
-        <v>544.5792654046139</v>
+        <v>544.579265404614</v>
       </c>
       <c r="T22" t="n">
-        <v>484.1314482736987</v>
+        <v>484.1314482736988</v>
       </c>
       <c r="U22" t="n">
-        <v>369.6723448162044</v>
+        <v>369.6723448162045</v>
       </c>
       <c r="V22" t="n">
-        <v>281.6681764280329</v>
+        <v>281.668176428033</v>
       </c>
       <c r="W22" t="n">
         <v>168.2429109988379</v>
@@ -5953,7 +5953,7 @@
         <v>109.7215829476195</v>
       </c>
       <c r="Y22" t="n">
-        <v>60.41756019330246</v>
+        <v>60.41756019330249</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1325.912468951886</v>
+        <v>1325.912468951887</v>
       </c>
       <c r="C23" t="n">
-        <v>1116.709846338099</v>
+        <v>1116.7098463381</v>
       </c>
       <c r="D23" t="n">
-        <v>916.6170176187288</v>
+        <v>916.6170176187291</v>
       </c>
       <c r="E23" t="n">
-        <v>694.5624337782415</v>
+        <v>694.5624337782417</v>
       </c>
       <c r="F23" t="n">
-        <v>453.1423791418177</v>
+        <v>453.142379141818</v>
       </c>
       <c r="G23" t="n">
-        <v>209.7695286494115</v>
+        <v>209.7695286494118</v>
       </c>
       <c r="H23" t="n">
-        <v>49.67939030012662</v>
+        <v>49.67939030012665</v>
       </c>
       <c r="I23" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J23" t="n">
         <v>121.5918718351342</v>
@@ -5999,40 +5999,40 @@
         <v>1102.856783217951</v>
       </c>
       <c r="N23" t="n">
-        <v>1650.48192835161</v>
+        <v>1481.188141905667</v>
       </c>
       <c r="O23" t="n">
-        <v>2124.780299270387</v>
+        <v>1818.48965508195</v>
       </c>
       <c r="P23" t="n">
-        <v>2352.93719572644</v>
+        <v>2215.940337983946</v>
       </c>
       <c r="Q23" t="n">
-        <v>2447.369449412977</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R23" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.168538800185</v>
+        <v>2465.168538800186</v>
       </c>
       <c r="T23" t="n">
-        <v>2413.540728584602</v>
+        <v>2413.540728584603</v>
       </c>
       <c r="U23" t="n">
-        <v>2331.386528352001</v>
+        <v>2331.386528352003</v>
       </c>
       <c r="V23" t="n">
-        <v>2167.138390301349</v>
+        <v>2167.13839030135</v>
       </c>
       <c r="W23" t="n">
-        <v>1977.334596212356</v>
+        <v>1977.334596212357</v>
       </c>
       <c r="X23" t="n">
         <v>1768.035591787256</v>
       </c>
       <c r="Y23" t="n">
-        <v>1547.224872416499</v>
+        <v>1547.2248724165</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>860.5238027544336</v>
+        <v>840.333477416164</v>
       </c>
       <c r="C24" t="n">
-        <v>698.8201299953884</v>
+        <v>678.6298046571187</v>
       </c>
       <c r="D24" t="n">
-        <v>559.9814929856004</v>
+        <v>539.7911676473308</v>
       </c>
       <c r="E24" t="n">
-        <v>412.9534830424716</v>
+        <v>392.763157704202</v>
       </c>
       <c r="F24" t="n">
-        <v>278.2596849923459</v>
+        <v>258.0693596540764</v>
       </c>
       <c r="G24" t="n">
-        <v>149.5311850156305</v>
+        <v>129.340859677361</v>
       </c>
       <c r="H24" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="I24" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J24" t="n">
-        <v>109.8474740954346</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="K24" t="n">
-        <v>339.3380266556233</v>
+        <v>279.0838801225172</v>
       </c>
       <c r="L24" t="n">
-        <v>705.1598718257389</v>
+        <v>644.9057252926328</v>
       </c>
       <c r="M24" t="n">
-        <v>1190.193225335966</v>
+        <v>1129.939078802859</v>
       </c>
       <c r="N24" t="n">
-        <v>1701.458871459088</v>
+        <v>1627.598878270984</v>
       </c>
       <c r="O24" t="n">
-        <v>2093.658822243239</v>
+        <v>2019.798829055135</v>
       </c>
       <c r="P24" t="n">
-        <v>2321.894748330831</v>
+        <v>2321.894748330832</v>
       </c>
       <c r="Q24" t="n">
-        <v>2479.666378116425</v>
+        <v>2479.666378116426</v>
       </c>
       <c r="R24" t="n">
-        <v>2440.072434549641</v>
+        <v>2419.882109211372</v>
       </c>
       <c r="S24" t="n">
-        <v>2287.272947562381</v>
+        <v>2267.082622224112</v>
       </c>
       <c r="T24" t="n">
-        <v>2098.587843728367</v>
+        <v>2078.397518390098</v>
       </c>
       <c r="U24" t="n">
-        <v>1880.093051326677</v>
+        <v>1859.902725988408</v>
       </c>
       <c r="V24" t="n">
-        <v>1651.697428775011</v>
+        <v>1631.507103436742</v>
       </c>
       <c r="W24" t="n">
-        <v>1410.381560008321</v>
+        <v>1390.191234670051</v>
       </c>
       <c r="X24" t="n">
-        <v>1212.464571886116</v>
+        <v>1192.274246547846</v>
       </c>
       <c r="Y24" t="n">
-        <v>1019.943245535695</v>
+        <v>999.7529201974249</v>
       </c>
     </row>
     <row r="25">
@@ -6121,67 +6121,67 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="C25" t="n">
-        <v>49.5933275623285</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="D25" t="n">
-        <v>53.49864670158799</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="E25" t="n">
-        <v>53.49864670158799</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="F25" t="n">
-        <v>53.49864670158799</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="G25" t="n">
-        <v>53.49864670158799</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="H25" t="n">
-        <v>53.49864670158799</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="I25" t="n">
-        <v>53.49864670158799</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="J25" t="n">
-        <v>53.49864670158799</v>
+        <v>49.59332756232853</v>
       </c>
       <c r="K25" t="n">
-        <v>87.1028344462314</v>
+        <v>83.19751530697194</v>
       </c>
       <c r="L25" t="n">
-        <v>187.7099138464909</v>
+        <v>183.8045947072314</v>
       </c>
       <c r="M25" t="n">
-        <v>305.7034199740926</v>
+        <v>301.7981008348332</v>
       </c>
       <c r="N25" t="n">
-        <v>424.125761723693</v>
+        <v>424.1257617236931</v>
       </c>
       <c r="O25" t="n">
-        <v>522.5894082193827</v>
+        <v>522.5894082193828</v>
       </c>
       <c r="P25" t="n">
-        <v>585.5578919475205</v>
+        <v>585.5578919475206</v>
       </c>
       <c r="Q25" t="n">
-        <v>585.5578919475205</v>
+        <v>585.5578919475206</v>
       </c>
       <c r="R25" t="n">
-        <v>585.5578919475205</v>
+        <v>585.5578919475206</v>
       </c>
       <c r="S25" t="n">
-        <v>544.5792654046139</v>
+        <v>544.579265404614</v>
       </c>
       <c r="T25" t="n">
-        <v>484.1314482736987</v>
+        <v>484.1314482736988</v>
       </c>
       <c r="U25" t="n">
-        <v>369.6723448162044</v>
+        <v>369.6723448162045</v>
       </c>
       <c r="V25" t="n">
-        <v>281.6681764280329</v>
+        <v>281.668176428033</v>
       </c>
       <c r="W25" t="n">
         <v>168.2429109988379</v>
@@ -6190,7 +6190,7 @@
         <v>109.7215829476195</v>
       </c>
       <c r="Y25" t="n">
-        <v>60.41756019330246</v>
+        <v>60.41756019330249</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1744.242696779854</v>
+        <v>1422.858215795353</v>
       </c>
       <c r="C26" t="n">
-        <v>1476.884862868428</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D26" t="n">
-        <v>1218.636822851418</v>
+        <v>897.2523418669166</v>
       </c>
       <c r="E26" t="n">
-        <v>938.427027713291</v>
+        <v>897.2523418669166</v>
       </c>
       <c r="F26" t="n">
         <v>638.8517617792277</v>
@@ -6221,19 +6221,19 @@
         <v>119.0783503422577</v>
       </c>
       <c r="I26" t="n">
-        <v>60.83707630682018</v>
+        <v>60.83707630682011</v>
       </c>
       <c r="J26" t="n">
-        <v>245.1314844327526</v>
+        <v>245.1314844327524</v>
       </c>
       <c r="K26" t="n">
-        <v>597.5677203306623</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L26" t="n">
         <v>1057.748957268735</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.28398737495</v>
+        <v>1563.283987374949</v>
       </c>
       <c r="N26" t="n">
         <v>2053.911209915792</v>
@@ -6242,13 +6242,13 @@
         <v>2471.211658241753</v>
       </c>
       <c r="P26" t="n">
-        <v>2811.664418550933</v>
+        <v>2811.664418550932</v>
       </c>
       <c r="Q26" t="n">
         <v>3018.392536090596</v>
       </c>
       <c r="R26" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S26" t="n">
         <v>2969.200764727129</v>
@@ -6260,16 +6260,16 @@
         <v>2719.108331683667</v>
       </c>
       <c r="V26" t="n">
-        <v>2550.635247597134</v>
+        <v>2496.704982335375</v>
       </c>
       <c r="W26" t="n">
-        <v>2302.676242210503</v>
+        <v>2248.745976948741</v>
       </c>
       <c r="X26" t="n">
-        <v>2302.676242210503</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y26" t="n">
-        <v>2023.710311542107</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>925.43721934876</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C27" t="n">
-        <v>763.7335465897147</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D27" t="n">
-        <v>624.8949095799268</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E27" t="n">
-        <v>477.866899636798</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F27" t="n">
-        <v>343.1731015866724</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G27" t="n">
-        <v>214.4446016099569</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H27" t="n">
-        <v>114.506744156655</v>
+        <v>129.2193616167592</v>
       </c>
       <c r="I27" t="n">
-        <v>60.83707630682018</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J27" t="n">
         <v>121.0912228399263</v>
@@ -6309,7 +6309,7 @@
         <v>350.581775400115</v>
       </c>
       <c r="L27" t="n">
-        <v>716.4036205702307</v>
+        <v>716.4036205702306</v>
       </c>
       <c r="M27" t="n">
         <v>1201.436974080457</v>
@@ -6318,19 +6318,19 @@
         <v>1712.702620203579</v>
       </c>
       <c r="O27" t="n">
-        <v>2104.902570987731</v>
+        <v>2104.90257098773</v>
       </c>
       <c r="P27" t="n">
-        <v>2406.998490263428</v>
+        <v>2406.998490263427</v>
       </c>
       <c r="Q27" t="n">
-        <v>2564.770120049022</v>
+        <v>2564.770120049021</v>
       </c>
       <c r="R27" t="n">
         <v>2504.985851143967</v>
       </c>
       <c r="S27" t="n">
-        <v>2352.186364156708</v>
+        <v>2352.186364156707</v>
       </c>
       <c r="T27" t="n">
         <v>2163.501260322693</v>
@@ -6345,10 +6345,10 @@
         <v>1475.294976602647</v>
       </c>
       <c r="X27" t="n">
-        <v>1277.377988480442</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y27" t="n">
-        <v>1084.856662130021</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>358.4785731901145</v>
+        <v>358.4785731901138</v>
       </c>
       <c r="C28" t="n">
-        <v>303.4385284075613</v>
+        <v>303.4385284075605</v>
       </c>
       <c r="D28" t="n">
-        <v>264.9425599910905</v>
+        <v>264.9425599910895</v>
       </c>
       <c r="E28" t="n">
-        <v>227.5094705081758</v>
+        <v>227.5094705081748</v>
       </c>
       <c r="F28" t="n">
-        <v>189.6047402897194</v>
+        <v>189.6047402897182</v>
       </c>
       <c r="G28" t="n">
-        <v>135.2609164133356</v>
+        <v>135.2609164133346</v>
       </c>
       <c r="H28" t="n">
-        <v>90.46419594837569</v>
+        <v>90.46419594837494</v>
       </c>
       <c r="I28" t="n">
-        <v>60.83707630682018</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J28" t="n">
-        <v>114.2708406219777</v>
+        <v>114.2708406219772</v>
       </c>
       <c r="K28" t="n">
-        <v>260.1708922197477</v>
+        <v>260.1708922197468</v>
       </c>
       <c r="L28" t="n">
-        <v>473.0738354731339</v>
+        <v>473.0738354731329</v>
       </c>
       <c r="M28" t="n">
-        <v>703.3632054538623</v>
+        <v>703.3632054538613</v>
       </c>
       <c r="N28" t="n">
-        <v>934.0814110565893</v>
+        <v>934.0814110565882</v>
       </c>
       <c r="O28" t="n">
-        <v>1144.840921405406</v>
+        <v>1144.840921405405</v>
       </c>
       <c r="P28" t="n">
-        <v>1320.10526898667</v>
+        <v>1320.105268986669</v>
       </c>
       <c r="Q28" t="n">
-        <v>1394.630684586277</v>
+        <v>1394.630684586276</v>
       </c>
       <c r="R28" t="n">
-        <v>1359.684827956422</v>
+        <v>1359.684827956421</v>
       </c>
       <c r="S28" t="n">
-        <v>1260.550990115876</v>
+        <v>1260.550990115875</v>
       </c>
       <c r="T28" t="n">
         <v>1141.947961687321</v>
       </c>
       <c r="U28" t="n">
-        <v>969.3336469321875</v>
+        <v>969.3336469321871</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1742672463768</v>
+        <v>823.174267246376</v>
       </c>
       <c r="W28" t="n">
-        <v>651.5937905195423</v>
+        <v>651.5937905195416</v>
       </c>
       <c r="X28" t="n">
-        <v>534.9172511706845</v>
+        <v>534.9172511706838</v>
       </c>
       <c r="Y28" t="n">
-        <v>427.4580171187279</v>
+        <v>427.4580171187272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1467.756073097491</v>
+        <v>1422.858215795353</v>
       </c>
       <c r="C29" t="n">
-        <v>1200.398239186066</v>
+        <v>1155.500381883927</v>
       </c>
       <c r="D29" t="n">
-        <v>942.1501991690558</v>
+        <v>897.2523418669168</v>
       </c>
       <c r="E29" t="n">
-        <v>661.940404030929</v>
+        <v>661.9404040309289</v>
       </c>
       <c r="F29" t="n">
         <v>362.3651380968658</v>
       </c>
       <c r="G29" t="n">
-        <v>60.83707630682018</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="H29" t="n">
-        <v>60.83707630682018</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="I29" t="n">
-        <v>60.83707630682018</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J29" t="n">
         <v>245.1314844327525</v>
       </c>
       <c r="K29" t="n">
-        <v>597.5677203306619</v>
+        <v>597.5677203306618</v>
       </c>
       <c r="L29" t="n">
         <v>1057.748957268735</v>
       </c>
       <c r="M29" t="n">
-        <v>1563.28398737495</v>
+        <v>1563.283987374949</v>
       </c>
       <c r="N29" t="n">
-        <v>2053.911209915792</v>
+        <v>2053.911209915791</v>
       </c>
       <c r="O29" t="n">
-        <v>2471.211658241753</v>
+        <v>2471.211658241752</v>
       </c>
       <c r="P29" t="n">
-        <v>2811.664418550933</v>
+        <v>2811.664418550932</v>
       </c>
       <c r="Q29" t="n">
         <v>3018.392536090596</v>
       </c>
       <c r="R29" t="n">
-        <v>3041.853815341009</v>
+        <v>3041.853815341008</v>
       </c>
       <c r="S29" t="n">
-        <v>2969.200764727129</v>
+        <v>2969.200764727128</v>
       </c>
       <c r="T29" t="n">
-        <v>2859.417743213907</v>
+        <v>2859.417743213906</v>
       </c>
       <c r="U29" t="n">
-        <v>2719.108331683667</v>
+        <v>2719.108331683666</v>
       </c>
       <c r="V29" t="n">
-        <v>2496.704982335375</v>
+        <v>2496.704982335374</v>
       </c>
       <c r="W29" t="n">
-        <v>2248.745976948742</v>
+        <v>2248.745976948741</v>
       </c>
       <c r="X29" t="n">
-        <v>2026.189618528139</v>
+        <v>1981.291761226001</v>
       </c>
       <c r="Y29" t="n">
-        <v>1747.223687859744</v>
+        <v>1702.325830557606</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>940.1498368088643</v>
+        <v>925.4372193487595</v>
       </c>
       <c r="C30" t="n">
-        <v>778.446164049819</v>
+        <v>763.7335465897143</v>
       </c>
       <c r="D30" t="n">
-        <v>639.6075270400311</v>
+        <v>624.8949095799263</v>
       </c>
       <c r="E30" t="n">
-        <v>492.5795170969022</v>
+        <v>477.8668996367975</v>
       </c>
       <c r="F30" t="n">
-        <v>357.8857190467766</v>
+        <v>343.1731015866719</v>
       </c>
       <c r="G30" t="n">
-        <v>229.1572190700612</v>
+        <v>214.4446016099565</v>
       </c>
       <c r="H30" t="n">
-        <v>129.2193616167592</v>
+        <v>114.5067441566545</v>
       </c>
       <c r="I30" t="n">
-        <v>60.83707630682018</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J30" t="n">
         <v>121.0912228399263</v>
@@ -6546,7 +6546,7 @@
         <v>350.581775400115</v>
       </c>
       <c r="L30" t="n">
-        <v>716.4036205702307</v>
+        <v>716.4036205702306</v>
       </c>
       <c r="M30" t="n">
         <v>1201.436974080457</v>
@@ -6555,37 +6555,37 @@
         <v>1712.702620203579</v>
       </c>
       <c r="O30" t="n">
-        <v>2104.902570987731</v>
+        <v>2104.90257098773</v>
       </c>
       <c r="P30" t="n">
-        <v>2406.998490263428</v>
+        <v>2406.998490263427</v>
       </c>
       <c r="Q30" t="n">
-        <v>2564.770120049022</v>
+        <v>2564.770120049021</v>
       </c>
       <c r="R30" t="n">
-        <v>2519.698468604072</v>
+        <v>2504.985851143967</v>
       </c>
       <c r="S30" t="n">
-        <v>2366.898981616812</v>
+        <v>2352.186364156707</v>
       </c>
       <c r="T30" t="n">
-        <v>2178.213877782798</v>
+        <v>2163.501260322693</v>
       </c>
       <c r="U30" t="n">
-        <v>1959.719085381108</v>
+        <v>1945.006467921003</v>
       </c>
       <c r="V30" t="n">
-        <v>1731.323462829442</v>
+        <v>1716.610845369337</v>
       </c>
       <c r="W30" t="n">
-        <v>1490.007594062752</v>
+        <v>1475.294976602647</v>
       </c>
       <c r="X30" t="n">
-        <v>1292.090605940546</v>
+        <v>1277.377988480441</v>
       </c>
       <c r="Y30" t="n">
-        <v>1099.569279590125</v>
+        <v>1084.85666213002</v>
       </c>
     </row>
     <row r="31">
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>358.4785731901138</v>
+        <v>358.4785731901134</v>
       </c>
       <c r="C31" t="n">
-        <v>303.4385284075605</v>
+        <v>303.4385284075599</v>
       </c>
       <c r="D31" t="n">
-        <v>264.9425599910897</v>
+        <v>264.9425599910892</v>
       </c>
       <c r="E31" t="n">
-        <v>227.509470508175</v>
+        <v>227.5094705081751</v>
       </c>
       <c r="F31" t="n">
-        <v>189.6047402897185</v>
+        <v>189.6047402897187</v>
       </c>
       <c r="G31" t="n">
-        <v>135.260916413335</v>
+        <v>135.2609164133351</v>
       </c>
       <c r="H31" t="n">
-        <v>90.46419594837522</v>
+        <v>90.46419594837528</v>
       </c>
       <c r="I31" t="n">
-        <v>60.83707630682018</v>
+        <v>60.83707630682017</v>
       </c>
       <c r="J31" t="n">
         <v>114.2708406219775</v>
       </c>
       <c r="K31" t="n">
-        <v>260.1708922197476</v>
+        <v>260.1708922197475</v>
       </c>
       <c r="L31" t="n">
-        <v>473.0738354731338</v>
+        <v>473.0738354731334</v>
       </c>
       <c r="M31" t="n">
-        <v>703.3632054538622</v>
+        <v>703.3632054538616</v>
       </c>
       <c r="N31" t="n">
-        <v>934.0814110565892</v>
+        <v>934.0814110565884</v>
       </c>
       <c r="O31" t="n">
-        <v>1144.840921405406</v>
+        <v>1144.840921405405</v>
       </c>
       <c r="P31" t="n">
-        <v>1320.10526898667</v>
+        <v>1320.105268986669</v>
       </c>
       <c r="Q31" t="n">
-        <v>1394.630684586277</v>
+        <v>1394.630684586276</v>
       </c>
       <c r="R31" t="n">
         <v>1359.684827956421</v>
@@ -6649,22 +6649,22 @@
         <v>1260.550990115875</v>
       </c>
       <c r="T31" t="n">
-        <v>1141.947961687321</v>
+        <v>1141.94796168732</v>
       </c>
       <c r="U31" t="n">
-        <v>969.333646932187</v>
+        <v>969.3336469321866</v>
       </c>
       <c r="V31" t="n">
-        <v>823.174267246376</v>
+        <v>823.1742672463756</v>
       </c>
       <c r="W31" t="n">
-        <v>651.5937905195415</v>
+        <v>651.5937905195411</v>
       </c>
       <c r="X31" t="n">
-        <v>534.9172511706837</v>
+        <v>534.9172511706832</v>
       </c>
       <c r="Y31" t="n">
-        <v>427.4580171187272</v>
+        <v>427.4580171187267</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1542.536318111711</v>
+        <v>1542.536318111712</v>
       </c>
       <c r="C32" t="n">
         <v>1303.684062512362</v>
@@ -6683,67 +6683,67 @@
         <v>1073.941600807429</v>
       </c>
       <c r="E32" t="n">
-        <v>822.2373839813787</v>
+        <v>822.2373839813789</v>
       </c>
       <c r="F32" t="n">
-        <v>551.1676963593924</v>
+        <v>551.1676963593925</v>
       </c>
       <c r="G32" t="n">
         <v>278.1452128814237</v>
       </c>
       <c r="H32" t="n">
-        <v>88.40544154657566</v>
+        <v>88.4054415465758</v>
       </c>
       <c r="I32" t="n">
-        <v>58.66974582321502</v>
+        <v>58.66974582321505</v>
       </c>
       <c r="J32" t="n">
         <v>270.9024712528139</v>
       </c>
       <c r="K32" t="n">
-        <v>651.2770244543899</v>
+        <v>651.2770244543898</v>
       </c>
       <c r="L32" t="n">
-        <v>1139.396578696129</v>
+        <v>1062.220891580066</v>
       </c>
       <c r="M32" t="n">
-        <v>1532.635744949217</v>
+        <v>1595.694238989947</v>
       </c>
       <c r="N32" t="n">
-        <v>1910.967103636933</v>
+        <v>1974.025597677663</v>
       </c>
       <c r="O32" t="n">
-        <v>2279.030182150495</v>
+        <v>2419.26436330729</v>
       </c>
       <c r="P32" t="n">
-        <v>2647.421259763342</v>
+        <v>2787.655440920136</v>
       </c>
       <c r="Q32" t="n">
-        <v>2882.087694606672</v>
+        <v>2882.087694606673</v>
       </c>
       <c r="R32" t="n">
-        <v>2933.487291160751</v>
+        <v>2933.487291160752</v>
       </c>
       <c r="S32" t="n">
-        <v>2889.339818858949</v>
+        <v>2889.33981885895</v>
       </c>
       <c r="T32" t="n">
-        <v>2808.062375657803</v>
+        <v>2808.062375657804</v>
       </c>
       <c r="U32" t="n">
-        <v>2696.25854243964</v>
+        <v>2696.258542439642</v>
       </c>
       <c r="V32" t="n">
-        <v>2502.360771403425</v>
+        <v>2502.360771403426</v>
       </c>
       <c r="W32" t="n">
-        <v>2282.907344328869</v>
+        <v>2282.90734432887</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.958706918206</v>
+        <v>2043.958706918207</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.498354561887</v>
+        <v>1793.498354561888</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>937.9825063252591</v>
+        <v>923.2698888651546</v>
       </c>
       <c r="C33" t="n">
-        <v>776.2788335662138</v>
+        <v>761.5662161061093</v>
       </c>
       <c r="D33" t="n">
-        <v>637.4401965564259</v>
+        <v>622.7275790963214</v>
       </c>
       <c r="E33" t="n">
-        <v>490.4121866132971</v>
+        <v>475.6995691531926</v>
       </c>
       <c r="F33" t="n">
-        <v>355.7183885631714</v>
+        <v>341.005771103067</v>
       </c>
       <c r="G33" t="n">
         <v>226.989888586456</v>
       </c>
       <c r="H33" t="n">
-        <v>127.052031133154</v>
+        <v>127.0520311331541</v>
       </c>
       <c r="I33" t="n">
-        <v>58.66974582321502</v>
+        <v>58.66974582321505</v>
       </c>
       <c r="J33" t="n">
         <v>118.9238923563212</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4144449165098</v>
+        <v>348.4144449165099</v>
       </c>
       <c r="L33" t="n">
-        <v>714.2362900866254</v>
+        <v>714.2362900866256</v>
       </c>
       <c r="M33" t="n">
         <v>1199.269643596852</v>
@@ -6801,28 +6801,28 @@
         <v>2562.602789565417</v>
       </c>
       <c r="R33" t="n">
-        <v>2517.531138120466</v>
+        <v>2502.818520660362</v>
       </c>
       <c r="S33" t="n">
-        <v>2364.731651133207</v>
+        <v>2350.019033673103</v>
       </c>
       <c r="T33" t="n">
-        <v>2176.046547299192</v>
+        <v>2161.333929839088</v>
       </c>
       <c r="U33" t="n">
-        <v>1957.551754897502</v>
+        <v>1942.839137437398</v>
       </c>
       <c r="V33" t="n">
-        <v>1729.156132345836</v>
+        <v>1714.443514885732</v>
       </c>
       <c r="W33" t="n">
-        <v>1487.840263579146</v>
+        <v>1473.127646119042</v>
       </c>
       <c r="X33" t="n">
-        <v>1289.923275456941</v>
+        <v>1275.210657996837</v>
       </c>
       <c r="Y33" t="n">
-        <v>1097.40194910652</v>
+        <v>1082.689331646415</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.7721945219702</v>
+        <v>156.772194521971</v>
       </c>
       <c r="C34" t="n">
-        <v>130.2377280514939</v>
+        <v>130.2377280514946</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2473379470999</v>
+        <v>120.2473379471005</v>
       </c>
       <c r="E34" t="n">
-        <v>111.3198267762621</v>
+        <v>111.3198267762626</v>
       </c>
       <c r="F34" t="n">
-        <v>101.9206748698826</v>
+        <v>101.920674869883</v>
       </c>
       <c r="G34" t="n">
-        <v>76.08242930557596</v>
+        <v>76.08242930557623</v>
       </c>
       <c r="H34" t="n">
-        <v>59.79128715269314</v>
+        <v>59.79128715269329</v>
       </c>
       <c r="I34" t="n">
-        <v>58.66974582321502</v>
+        <v>58.66974582321505</v>
       </c>
       <c r="J34" t="n">
-        <v>58.66974582321502</v>
+        <v>140.0418274420389</v>
       </c>
       <c r="K34" t="n">
-        <v>195.2211295480845</v>
+        <v>173.6460151866823</v>
       </c>
       <c r="L34" t="n">
-        <v>295.8282089483441</v>
+        <v>274.2530945869418</v>
       </c>
       <c r="M34" t="n">
-        <v>413.8217150759458</v>
+        <v>532.4807818713366</v>
       </c>
       <c r="N34" t="n">
-        <v>532.2440568255462</v>
+        <v>650.903123620937</v>
       </c>
       <c r="O34" t="n">
-        <v>630.7077033212358</v>
+        <v>873.405617381305</v>
       </c>
       <c r="P34" t="n">
-        <v>833.9103682061669</v>
+        <v>936.3741011094428</v>
       </c>
       <c r="Q34" t="n">
-        <v>936.3741011094409</v>
+        <v>936.3741011094428</v>
       </c>
       <c r="R34" t="n">
-        <v>929.9338227916625</v>
+        <v>929.9338227916643</v>
       </c>
       <c r="S34" t="n">
-        <v>859.3055632631933</v>
+        <v>859.305563263195</v>
       </c>
       <c r="T34" t="n">
-        <v>769.2081131467155</v>
+        <v>769.2081131467171</v>
       </c>
       <c r="U34" t="n">
-        <v>625.0993767036588</v>
+        <v>625.0993767036601</v>
       </c>
       <c r="V34" t="n">
-        <v>507.4455753299247</v>
+        <v>507.445575329926</v>
       </c>
       <c r="W34" t="n">
-        <v>364.3706769151672</v>
+        <v>364.3706769151684</v>
       </c>
       <c r="X34" t="n">
-        <v>276.1997158783863</v>
+        <v>276.1997158783873</v>
       </c>
       <c r="Y34" t="n">
-        <v>197.2460601385067</v>
+        <v>197.2460601385076</v>
       </c>
     </row>
     <row r="35">
@@ -6935,7 +6935,7 @@
         <v>51.10067436208574</v>
       </c>
       <c r="J35" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K35" t="n">
         <v>527.7073651707066</v>
@@ -6944,19 +6944,19 @@
         <v>875.5927382556529</v>
       </c>
       <c r="M35" t="n">
-        <v>1268.831904508741</v>
+        <v>1384.640850310115</v>
       </c>
       <c r="N35" t="n">
-        <v>1687.339019109512</v>
+        <v>1762.97220899783</v>
       </c>
       <c r="O35" t="n">
-        <v>1992.343603582346</v>
+        <v>2232.444567961697</v>
       </c>
       <c r="P35" t="n">
-        <v>2384.968274529432</v>
+        <v>2460.60146441775</v>
       </c>
       <c r="Q35" t="n">
-        <v>2479.400528215969</v>
+        <v>2555.033718104287</v>
       </c>
       <c r="R35" t="n">
         <v>2555.033718104287</v>
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C36" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D36" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E36" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F36" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G36" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H36" t="n">
-        <v>119.4829596720247</v>
+        <v>104.77034221192</v>
       </c>
       <c r="I36" t="n">
         <v>51.10067436208574</v>
@@ -7038,28 +7038,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R36" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S36" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T36" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U36" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V36" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W36" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X36" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>54.02211951749091</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C37" t="n">
-        <v>52.21328648670347</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D37" t="n">
         <v>52.21328648670347</v>
@@ -7108,37 +7108,37 @@
         <v>421.7277893841908</v>
       </c>
       <c r="O37" t="n">
-        <v>520.1914358798805</v>
+        <v>565.2975844169162</v>
       </c>
       <c r="P37" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R37" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S37" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T37" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U37" t="n">
-        <v>398.7211345007349</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V37" t="n">
-        <v>305.7929665666898</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W37" t="n">
-        <v>187.4437015916211</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.77035169433847</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="38">
@@ -7169,19 +7169,19 @@
         <v>56.11073664575746</v>
       </c>
       <c r="I38" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J38" t="n">
-        <v>287.5669931259238</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K38" t="n">
-        <v>692.175139661739</v>
+        <v>527.7073651707066</v>
       </c>
       <c r="L38" t="n">
-        <v>1080.236268659741</v>
+        <v>875.5927382556529</v>
       </c>
       <c r="M38" t="n">
-        <v>1473.475434912829</v>
+        <v>1433.299678999773</v>
       </c>
       <c r="N38" t="n">
         <v>1851.806793600545</v>
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>930.4134348641297</v>
+        <v>915.700817404025</v>
       </c>
       <c r="C39" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449797</v>
       </c>
       <c r="D39" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351918</v>
       </c>
       <c r="E39" t="n">
-        <v>482.8431151521678</v>
+        <v>468.130497692063</v>
       </c>
       <c r="F39" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419374</v>
       </c>
       <c r="G39" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652219</v>
       </c>
       <c r="H39" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I39" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J39" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K39" t="n">
-        <v>340.8453734553805</v>
+        <v>340.8453734553806</v>
       </c>
       <c r="L39" t="n">
-        <v>706.6672186254962</v>
+        <v>706.6672186254963</v>
       </c>
       <c r="M39" t="n">
         <v>1191.700572135723</v>
@@ -7275,28 +7275,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R39" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199232</v>
       </c>
       <c r="S39" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T39" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377958</v>
       </c>
       <c r="U39" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976268</v>
       </c>
       <c r="V39" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424602</v>
       </c>
       <c r="W39" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657912</v>
       </c>
       <c r="X39" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y39" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="40">
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>54.02211951749089</v>
+        <v>52.90950739287318</v>
       </c>
       <c r="C40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D40" t="n">
-        <v>52.21328648670345</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="E40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="F40" t="n">
-        <v>52.21328648670345</v>
+        <v>52.21328648670347</v>
       </c>
       <c r="G40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="H40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="J40" t="n">
-        <v>51.10067436208573</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="K40" t="n">
-        <v>84.70486210672914</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L40" t="n">
         <v>185.3119415069887</v>
@@ -7348,34 +7348,34 @@
         <v>520.1914358798805</v>
       </c>
       <c r="P40" t="n">
-        <v>583.1599196080183</v>
+        <v>628.266068145054</v>
       </c>
       <c r="Q40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="R40" t="n">
-        <v>629.3786802696717</v>
+        <v>628.266068145054</v>
       </c>
       <c r="S40" t="n">
-        <v>583.4760541808915</v>
+        <v>582.3634420562738</v>
       </c>
       <c r="T40" t="n">
-        <v>518.1042375041027</v>
+        <v>516.991625379485</v>
       </c>
       <c r="U40" t="n">
-        <v>398.7211345007348</v>
+        <v>397.6085223761172</v>
       </c>
       <c r="V40" t="n">
-        <v>305.7929665666896</v>
+        <v>304.680354442072</v>
       </c>
       <c r="W40" t="n">
-        <v>187.443701591621</v>
+        <v>186.3310894670034</v>
       </c>
       <c r="X40" t="n">
-        <v>123.9983739945291</v>
+        <v>122.8857618699114</v>
       </c>
       <c r="Y40" t="n">
-        <v>69.77035169433844</v>
+        <v>68.65773956972075</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1402.683981160805</v>
+        <v>1315.263619900706</v>
       </c>
       <c r="C41" t="n">
-        <v>1182.729334917138</v>
+        <v>1095.308973657039</v>
       </c>
       <c r="D41" t="n">
-        <v>971.8844825678872</v>
+        <v>884.4641213077884</v>
       </c>
       <c r="E41" t="n">
-        <v>739.0778750975196</v>
+        <v>651.6575138374205</v>
       </c>
       <c r="F41" t="n">
-        <v>486.9057968312155</v>
+        <v>399.4854355711166</v>
       </c>
       <c r="G41" t="n">
-        <v>232.7809227089292</v>
+        <v>221.9428363412508</v>
       </c>
       <c r="H41" t="n">
-        <v>61.9387607297641</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="I41" t="n">
         <v>51.10067436208574</v>
       </c>
       <c r="J41" t="n">
-        <v>281.8549467211889</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K41" t="n">
-        <v>680.7510468522692</v>
+        <v>521.9953187659717</v>
       </c>
       <c r="L41" t="n">
-        <v>1155.869458548059</v>
+        <v>1028.636419937215</v>
       </c>
       <c r="M41" t="n">
         <v>1549.108624801147</v>
@@ -7442,19 +7442,19 @@
         <v>2467.404021312704</v>
       </c>
       <c r="U41" t="n">
-        <v>2461.918158710322</v>
+        <v>2374.497797450223</v>
       </c>
       <c r="V41" t="n">
-        <v>2286.917997029789</v>
+        <v>2199.49763576969</v>
       </c>
       <c r="W41" t="n">
-        <v>2086.362179310916</v>
+        <v>1998.941818050817</v>
       </c>
       <c r="X41" t="n">
-        <v>1866.311151255935</v>
+        <v>1778.890789995836</v>
       </c>
       <c r="Y41" t="n">
-        <v>1634.748408255299</v>
+        <v>1547.328046995199</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D42" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E42" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F42" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G42" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H42" t="n">
-        <v>119.4829596720247</v>
+        <v>104.7703422119204</v>
       </c>
       <c r="I42" t="n">
         <v>51.10067436208574</v>
@@ -7512,28 +7512,28 @@
         <v>2555.033718104287</v>
       </c>
       <c r="R42" t="n">
-        <v>2509.962066659337</v>
+        <v>2495.249449199233</v>
       </c>
       <c r="S42" t="n">
-        <v>2357.162579672078</v>
+        <v>2342.449962211973</v>
       </c>
       <c r="T42" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U42" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V42" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W42" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X42" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y42" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>65.67816768550416</v>
+        <v>58.73753147687978</v>
       </c>
       <c r="C43" t="n">
-        <v>58.0413105707101</v>
+        <v>51.10067436208574</v>
       </c>
       <c r="D43" t="n">
-        <v>58.0413105707101</v>
+        <v>58.04131057071007</v>
       </c>
       <c r="E43" t="n">
-        <v>58.0413105707101</v>
+        <v>58.04131057071007</v>
       </c>
       <c r="F43" t="n">
-        <v>58.0413105707101</v>
+        <v>58.04131057071007</v>
       </c>
       <c r="G43" t="n">
         <v>51.10067436208574</v>
@@ -7570,49 +7570,49 @@
         <v>51.10067436208574</v>
       </c>
       <c r="K43" t="n">
-        <v>189.2038636084489</v>
+        <v>84.70486210672915</v>
       </c>
       <c r="L43" t="n">
-        <v>289.8109430087084</v>
+        <v>185.3119415069887</v>
       </c>
       <c r="M43" t="n">
-        <v>407.8044491363102</v>
+        <v>303.3054476345904</v>
       </c>
       <c r="N43" t="n">
-        <v>526.2267908859105</v>
+        <v>421.7277893841908</v>
       </c>
       <c r="O43" t="n">
-        <v>624.6904373816002</v>
+        <v>520.1914358798805</v>
       </c>
       <c r="P43" t="n">
-        <v>687.658921109738</v>
+        <v>583.1599196080183</v>
       </c>
       <c r="Q43" t="n">
-        <v>687.658921109738</v>
+        <v>680.7182849011135</v>
       </c>
       <c r="R43" t="n">
-        <v>687.658921109738</v>
+        <v>680.7182849011135</v>
       </c>
       <c r="S43" t="n">
-        <v>635.9282709369512</v>
+        <v>628.9876347283267</v>
       </c>
       <c r="T43" t="n">
-        <v>564.7284301761557</v>
+        <v>557.7877939675312</v>
       </c>
       <c r="U43" t="n">
-        <v>439.5173030887813</v>
+        <v>432.5766668801567</v>
       </c>
       <c r="V43" t="n">
-        <v>340.7611110707295</v>
+        <v>333.820474862105</v>
       </c>
       <c r="W43" t="n">
-        <v>216.5838220116542</v>
+        <v>209.6431858030298</v>
       </c>
       <c r="X43" t="n">
-        <v>147.3104703305556</v>
+        <v>140.3698341219312</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.25442394635836</v>
+        <v>80.31378773773395</v>
       </c>
     </row>
     <row r="44">
@@ -7622,49 +7622,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1315.263619900706</v>
+        <v>1315.263619900705</v>
       </c>
       <c r="C44" t="n">
-        <v>1095.308973657039</v>
+        <v>1095.308973657038</v>
       </c>
       <c r="D44" t="n">
-        <v>884.4641213077887</v>
+        <v>884.4641213077877</v>
       </c>
       <c r="E44" t="n">
-        <v>651.6575138374212</v>
+        <v>651.6575138374201</v>
       </c>
       <c r="F44" t="n">
-        <v>486.9057968312155</v>
+        <v>399.4854355711162</v>
       </c>
       <c r="G44" t="n">
-        <v>232.7809227089292</v>
+        <v>145.3605614488298</v>
       </c>
       <c r="H44" t="n">
-        <v>61.9387607297641</v>
+        <v>61.93876072976412</v>
       </c>
       <c r="I44" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J44" t="n">
-        <v>281.8549467211889</v>
+        <v>123.0992186348914</v>
       </c>
       <c r="K44" t="n">
-        <v>680.7510468522692</v>
+        <v>363.2395906796742</v>
       </c>
       <c r="L44" t="n">
-        <v>1155.869458548059</v>
+        <v>711.1249637646204</v>
       </c>
       <c r="M44" t="n">
-        <v>1549.108624801147</v>
+        <v>1104.364130017708</v>
       </c>
       <c r="N44" t="n">
-        <v>1927.439983488863</v>
+        <v>1641.451216791721</v>
       </c>
       <c r="O44" t="n">
-        <v>2232.444567961697</v>
+        <v>1946.455801264555</v>
       </c>
       <c r="P44" t="n">
-        <v>2460.60146441775</v>
+        <v>2301.845736331452</v>
       </c>
       <c r="Q44" t="n">
         <v>2555.033718104287</v>
@@ -7685,10 +7685,10 @@
         <v>2199.49763576969</v>
       </c>
       <c r="W44" t="n">
-        <v>1998.941818050817</v>
+        <v>1998.941818050816</v>
       </c>
       <c r="X44" t="n">
-        <v>1778.890789995836</v>
+        <v>1778.890789995835</v>
       </c>
       <c r="Y44" t="n">
         <v>1547.328046995199</v>
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>930.4134348641297</v>
+        <v>915.7008174040254</v>
       </c>
       <c r="C45" t="n">
-        <v>768.7097621050845</v>
+        <v>753.9971446449802</v>
       </c>
       <c r="D45" t="n">
-        <v>629.8711250952965</v>
+        <v>615.1585076351922</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8431151521678</v>
+        <v>468.1304976920634</v>
       </c>
       <c r="F45" t="n">
-        <v>348.1493171020421</v>
+        <v>333.4366996419378</v>
       </c>
       <c r="G45" t="n">
-        <v>219.4208171253267</v>
+        <v>204.7081996652224</v>
       </c>
       <c r="H45" t="n">
         <v>119.4829596720247</v>
       </c>
       <c r="I45" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="J45" t="n">
         <v>111.3548208951919</v>
       </c>
       <c r="K45" t="n">
-        <v>340.8453734553806</v>
+        <v>340.8453734553805</v>
       </c>
       <c r="L45" t="n">
         <v>706.6672186254962</v>
@@ -7755,22 +7755,22 @@
         <v>2342.449962211973</v>
       </c>
       <c r="T45" t="n">
-        <v>2168.477475838063</v>
+        <v>2153.764858377959</v>
       </c>
       <c r="U45" t="n">
-        <v>1949.982683436373</v>
+        <v>1935.270065976269</v>
       </c>
       <c r="V45" t="n">
-        <v>1721.587060884707</v>
+        <v>1706.874443424603</v>
       </c>
       <c r="W45" t="n">
-        <v>1480.271192118017</v>
+        <v>1465.558574657913</v>
       </c>
       <c r="X45" t="n">
-        <v>1282.354203995812</v>
+        <v>1267.641586535707</v>
       </c>
       <c r="Y45" t="n">
-        <v>1089.832877645391</v>
+        <v>1075.120260185286</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>65.67816768550416</v>
+        <v>58.73753147687982</v>
       </c>
       <c r="C46" t="n">
-        <v>58.0413105707101</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="D46" t="n">
-        <v>58.0413105707101</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="E46" t="n">
-        <v>58.0413105707101</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="F46" t="n">
-        <v>58.0413105707101</v>
+        <v>58.04131057071011</v>
       </c>
       <c r="G46" t="n">
-        <v>51.10067436208574</v>
+        <v>51.10067436208573</v>
       </c>
       <c r="H46" t="n">
-        <v>51.10067436208574</v>
+        <v>53.65527286754945</v>
       </c>
       <c r="I46" t="n">
-        <v>51.10067436208574</v>
+        <v>53.65527286754945</v>
       </c>
       <c r="J46" t="n">
-        <v>51.10067436208574</v>
+        <v>53.65527286754945</v>
       </c>
       <c r="K46" t="n">
-        <v>84.70486210672915</v>
+        <v>87.25946061219287</v>
       </c>
       <c r="L46" t="n">
-        <v>185.3119415069887</v>
+        <v>187.8665400124524</v>
       </c>
       <c r="M46" t="n">
-        <v>303.3054476345904</v>
+        <v>305.8600461400541</v>
       </c>
       <c r="N46" t="n">
-        <v>421.7277893841908</v>
+        <v>424.2823878896545</v>
       </c>
       <c r="O46" t="n">
-        <v>520.1914358798805</v>
+        <v>522.7460343853442</v>
       </c>
       <c r="P46" t="n">
-        <v>583.1599196080183</v>
+        <v>585.714518113482</v>
       </c>
       <c r="Q46" t="n">
-        <v>687.658921109738</v>
+        <v>680.718284901114</v>
       </c>
       <c r="R46" t="n">
-        <v>687.658921109738</v>
+        <v>680.718284901114</v>
       </c>
       <c r="S46" t="n">
-        <v>635.9282709369512</v>
+        <v>628.9876347283272</v>
       </c>
       <c r="T46" t="n">
-        <v>564.7284301761557</v>
+        <v>557.7877939675316</v>
       </c>
       <c r="U46" t="n">
-        <v>439.5173030887813</v>
+        <v>432.5766668801571</v>
       </c>
       <c r="V46" t="n">
-        <v>340.7611110707295</v>
+        <v>333.8204748621052</v>
       </c>
       <c r="W46" t="n">
-        <v>216.5838220116542</v>
+        <v>209.64318580303</v>
       </c>
       <c r="X46" t="n">
-        <v>147.3104703305556</v>
+        <v>140.3698341219313</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.25442394635836</v>
+        <v>80.31378773773405</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K2" t="n">
-        <v>386.842925813375</v>
+        <v>314.1171235176139</v>
       </c>
       <c r="L2" t="n">
         <v>542.9595789155856</v>
@@ -8064,19 +8064,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>531.6388578109543</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N3" t="n">
-        <v>604.9267112876341</v>
+        <v>556.5689907174642</v>
       </c>
       <c r="O3" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P3" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K5" t="n">
-        <v>386.842925813375</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L5" t="n">
         <v>542.9595789155856</v>
@@ -8231,10 +8231,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P5" t="n">
-        <v>418.3383206229274</v>
+        <v>406.452522632913</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8304,16 +8304,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>604.9267112876341</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>438.2432899957026</v>
+        <v>471.9421843961442</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8538,7 +8538,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M9" t="n">
-        <v>156.1797194573845</v>
+        <v>461.3271126651593</v>
       </c>
       <c r="N9" t="n">
         <v>623.1450866466196</v>
@@ -8547,7 +8547,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>273.1004740566038</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>623.1450866466196</v>
+        <v>609.4018071971277</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>198.4944203312452</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -9003,10 +9003,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
-        <v>330.0615286668591</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
         <v>482.0924488944969</v>
@@ -9024,7 +9024,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>198.4944203312466</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9240,10 +9240,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>269.1987543909956</v>
       </c>
       <c r="L18" t="n">
         <v>482.0924488944969</v>
@@ -9261,7 +9261,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>259.3571946071103</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9486,7 +9486,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>530.8105291496435</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
@@ -9498,7 +9498,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>198.4944203312452</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9714,7 +9714,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
@@ -9726,13 +9726,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>623.1450866466196</v>
+        <v>609.4018071971273</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>339.3955455065594</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
         <v>273.1004740566038</v>
@@ -10674,13 +10674,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>623.1450866466196</v>
+        <v>623.1450866466193</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319179</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10902,7 +10902,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>343.8048081163523</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566032</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>264.684255572312</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>255.6655596168399</v>
       </c>
       <c r="E11" t="n">
-        <v>277.4076971867455</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>216.0628961504551</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>57.65886129508323</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.92652010774087</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>35.70478953542158</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>140.9012236050578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>230.0255481159711</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.18578564883022</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>298.5127811721451</v>
       </c>
       <c r="H14" t="n">
-        <v>216.0628961504551</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>57.65886129508323</v>
+        <v>57.6588612950832</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.92652010774086</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>108.6851912980902</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>138.9063174149372</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>220.1793158548093</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-5.053378189940796e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24449,10 +24449,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>277.4076971867455</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>40.76293898791062</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24500,13 +24500,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>53.39096260914176</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>264.7796735655128</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>44.44887872911751</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24698,7 +24698,7 @@
         <v>216.0628961504551</v>
       </c>
       <c r="I29" t="n">
-        <v>57.65886129508318</v>
+        <v>57.65886129508321</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24743,7 +24743,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>44.44887872911588</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -25640,13 +25640,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>75.81645214349642</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>10.72970550400154</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25682,7 +25682,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>86.54615764749815</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25874,13 +25874,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>86.54615764749727</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>86.54615764749843</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>623121.7550382714</v>
+        <v>623121.7550382715</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>683271.835471448</v>
+        <v>683271.8354714481</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>661190.3330788322</v>
+        <v>661190.3330788321</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677322.9780082486</v>
+        <v>677322.9780082488</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>671671.0529324095</v>
+        <v>671671.0529324092</v>
       </c>
       <c r="C2" t="n">
+        <v>671671.0529324091</v>
+      </c>
+      <c r="D2" t="n">
         <v>671671.0529324093</v>
-      </c>
-      <c r="D2" t="n">
-        <v>671671.0529324095</v>
       </c>
       <c r="E2" t="n">
         <v>611520.9724992319</v>
@@ -26326,16 +26326,16 @@
         <v>611520.9724992318</v>
       </c>
       <c r="G2" t="n">
+        <v>671671.0529324089</v>
+      </c>
+      <c r="H2" t="n">
+        <v>671671.052932409</v>
+      </c>
+      <c r="I2" t="n">
         <v>671671.0529324088</v>
       </c>
-      <c r="H2" t="n">
-        <v>671671.0529324085</v>
-      </c>
-      <c r="I2" t="n">
-        <v>671671.0529324089</v>
-      </c>
       <c r="J2" t="n">
-        <v>649510.468122844</v>
+        <v>649510.4681228441</v>
       </c>
       <c r="K2" t="n">
         <v>649510.4681228442</v>
@@ -26344,16 +26344,16 @@
         <v>671671.0529324091</v>
       </c>
       <c r="M2" t="n">
-        <v>671671.0529324096</v>
+        <v>671671.0529324098</v>
       </c>
       <c r="N2" t="n">
-        <v>671671.0529324097</v>
+        <v>671671.0529324098</v>
       </c>
       <c r="O2" t="n">
+        <v>665643.1130522616</v>
+      </c>
+      <c r="P2" t="n">
         <v>665643.1130522612</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665643.1130522613</v>
       </c>
     </row>
     <row r="3">
@@ -26363,25 +26363,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166962.1560468122</v>
+        <v>166962.1560468124</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8415.473351528404</v>
+        <v>8415.473351528228</v>
       </c>
       <c r="E3" t="n">
-        <v>118993.6101405802</v>
+        <v>118993.6101405803</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>46058.92734773047</v>
+        <v>46058.92734773038</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>211812.515593756</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>68635.34537089539</v>
+        <v>68635.34537089523</v>
       </c>
       <c r="M3" t="n">
-        <v>19582.70168423362</v>
+        <v>19582.70168423378</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>40069.40998430327</v>
+        <v>40069.40998430325</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203953.7032080748</v>
+        <v>203953.7032080747</v>
       </c>
       <c r="C4" t="n">
-        <v>203953.7032080748</v>
+        <v>203953.7032080747</v>
       </c>
       <c r="D4" t="n">
-        <v>196979.4332140584</v>
+        <v>196979.4332140583</v>
       </c>
       <c r="E4" t="n">
         <v>149911.6674641373</v>
       </c>
       <c r="F4" t="n">
-        <v>149911.6674641373</v>
+        <v>149911.6674641374</v>
       </c>
       <c r="G4" t="n">
-        <v>188899.1837811233</v>
+        <v>188899.1837811232</v>
       </c>
       <c r="H4" t="n">
         <v>188899.1837811233</v>
       </c>
       <c r="I4" t="n">
-        <v>188899.1837811232</v>
+        <v>188899.1837811233</v>
       </c>
       <c r="J4" t="n">
         <v>173576.2621260966</v>
@@ -26451,10 +26451,10 @@
         <v>187302.9854962236</v>
       </c>
       <c r="N4" t="n">
-        <v>187302.9854962236</v>
+        <v>187302.9854962235</v>
       </c>
       <c r="O4" t="n">
-        <v>183389.0956459938</v>
+        <v>183389.0956459937</v>
       </c>
       <c r="P4" t="n">
         <v>183389.0956459937</v>
@@ -26467,37 +26467,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63918.86346937148</v>
+        <v>63918.86346937151</v>
       </c>
       <c r="C5" t="n">
-        <v>63918.86346937148</v>
+        <v>63918.86346937151</v>
       </c>
       <c r="D5" t="n">
         <v>65566.03463691141</v>
       </c>
       <c r="E5" t="n">
-        <v>47226.88953147926</v>
+        <v>47226.88953147928</v>
       </c>
       <c r="F5" t="n">
-        <v>47226.88953147926</v>
+        <v>47226.88953147929</v>
       </c>
       <c r="G5" t="n">
-        <v>52067.0494854747</v>
+        <v>52067.04948547472</v>
       </c>
       <c r="H5" t="n">
-        <v>52067.0494854747</v>
+        <v>52067.04948547472</v>
       </c>
       <c r="I5" t="n">
-        <v>52067.04948547469</v>
+        <v>52067.04948547472</v>
       </c>
       <c r="J5" t="n">
-        <v>55772.13857729294</v>
+        <v>55772.13857729292</v>
       </c>
       <c r="K5" t="n">
-        <v>55772.13857729294</v>
+        <v>55772.13857729292</v>
       </c>
       <c r="L5" t="n">
-        <v>56497.43851823983</v>
+        <v>56497.43851823984</v>
       </c>
       <c r="M5" t="n">
         <v>52802.81689264637</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236836.3302081509</v>
+        <v>236836.3302081506</v>
       </c>
       <c r="C6" t="n">
-        <v>403798.486254963</v>
+        <v>403798.4862549629</v>
       </c>
       <c r="D6" t="n">
-        <v>400710.1117299112</v>
+        <v>400710.1117299114</v>
       </c>
       <c r="E6" t="n">
-        <v>295388.8053630352</v>
+        <v>295216.9479903688</v>
       </c>
       <c r="F6" t="n">
-        <v>414382.4155036152</v>
+        <v>414210.5581309489</v>
       </c>
       <c r="G6" t="n">
-        <v>384645.8923180803</v>
+        <v>384645.8923180805</v>
       </c>
       <c r="H6" t="n">
-        <v>430704.8196658106</v>
+        <v>430704.8196658109</v>
       </c>
       <c r="I6" t="n">
-        <v>430704.8196658109</v>
+        <v>430704.8196658108</v>
       </c>
       <c r="J6" t="n">
-        <v>208349.5518256984</v>
+        <v>208286.2358690998</v>
       </c>
       <c r="K6" t="n">
-        <v>420162.0674194547</v>
+        <v>420098.751462856</v>
       </c>
       <c r="L6" t="n">
-        <v>358758.5063782149</v>
+        <v>358758.506378215</v>
       </c>
       <c r="M6" t="n">
-        <v>411982.548859306</v>
+        <v>411982.5488593061</v>
       </c>
       <c r="N6" t="n">
-        <v>431565.2505435398</v>
+        <v>431565.2505435399</v>
       </c>
       <c r="O6" t="n">
-        <v>389866.8471244689</v>
+        <v>389849.6244390976</v>
       </c>
       <c r="P6" t="n">
-        <v>429936.2571087724</v>
+        <v>429919.0344234004</v>
       </c>
     </row>
   </sheetData>
@@ -26698,7 +26698,7 @@
         <v>113.4301655082087</v>
       </c>
       <c r="G2" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="H2" t="n">
         <v>171.0038246928718</v>
@@ -26707,13 +26707,13 @@
         <v>171.0038246928718</v>
       </c>
       <c r="J2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L2" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="M2" t="n">
         <v>166.1290651424569</v>
@@ -26725,7 +26725,7 @@
         <v>160.3593212992904</v>
       </c>
       <c r="P2" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
     </row>
     <row r="3">
@@ -26787,49 +26787,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199258</v>
+        <v>498.2115702199263</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2115702199258</v>
+        <v>498.2115702199263</v>
       </c>
       <c r="D4" t="n">
         <v>525.3032012649903</v>
       </c>
       <c r="E4" t="n">
-        <v>619.9165945291063</v>
+        <v>619.9165945291066</v>
       </c>
       <c r="F4" t="n">
-        <v>619.9165945291063</v>
+        <v>619.9165945291066</v>
       </c>
       <c r="G4" t="n">
-        <v>619.9165945291063</v>
+        <v>619.9165945291066</v>
       </c>
       <c r="H4" t="n">
-        <v>619.9165945291063</v>
+        <v>619.9165945291066</v>
       </c>
       <c r="I4" t="n">
-        <v>619.9165945291062</v>
+        <v>619.9165945291065</v>
       </c>
       <c r="J4" t="n">
-        <v>760.4634538352523</v>
+        <v>760.463453835252</v>
       </c>
       <c r="K4" t="n">
-        <v>760.4634538352523</v>
+        <v>760.463453835252</v>
       </c>
       <c r="L4" t="n">
-        <v>733.3718227901877</v>
+        <v>733.371822790188</v>
       </c>
       <c r="M4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="N4" t="n">
-        <v>638.7584295260716</v>
+        <v>638.7584295260717</v>
       </c>
       <c r="O4" t="n">
         <v>638.7584295260717</v>
       </c>
       <c r="P4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
     </row>
   </sheetData>
@@ -26917,34 +26917,34 @@
         <v>113.4301655082087</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>57.57365918466309</v>
+        <v>57.57365918466297</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.85650632354566</v>
+        <v>55.85650632354562</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>85.79418171361924</v>
+        <v>85.79418171361904</v>
       </c>
       <c r="M2" t="n">
-        <v>24.47837710529203</v>
+        <v>24.47837710529222</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>50.08676248037909</v>
+        <v>50.08676248037906</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2115702199258</v>
+        <v>498.2115702199263</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>27.09163104506456</v>
+        <v>27.09163104506399</v>
       </c>
       <c r="E4" t="n">
-        <v>94.61339326411598</v>
+        <v>94.61339326411633</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.7584295260717</v>
+        <v>638.7584295260716</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>113.4301655082087</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>57.57365918466309</v>
+        <v>57.57365918466297</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>55.85650632354566</v>
+        <v>55.85650632354562</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>498.2115702199258</v>
+        <v>498.2115702199263</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.09163104506456</v>
+        <v>27.09163104506399</v>
       </c>
       <c r="M4" t="n">
-        <v>94.61339326411598</v>
+        <v>94.61339326411633</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E2" t="n">
-        <v>53.39249620812274</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>389.6064368699203</v>
+        <v>249.6521534708721</v>
       </c>
     </row>
     <row r="3">
@@ -27455,13 +27455,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
-        <v>51.49174540897539</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27506,7 +27506,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>62.07191789154628</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27543,19 +27543,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E4" t="n">
-        <v>113.3980203820169</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>199.9995129451453</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>258.1279513971616</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>102.4306527294062</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>29.35006621059438</v>
       </c>
       <c r="I5" t="n">
         <v>171.0890268032919</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>162.7435717517296</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>177.0529570675112</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>81.07501389434837</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
@@ -27831,13 +27831,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3884301890142865</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>219.8148072196457</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>359.416937684541</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>390.8378626949542</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>180.5731556611142</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
         <v>358.909580840975</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="9">
@@ -27929,16 +27929,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>69.25219427936615</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27950,7 +27950,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>57.60636999204326</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>110.4418065321011</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28068,10 +28068,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>14.6841360714634</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
@@ -28111,31 +28111,31 @@
         <v>113.4301655082087</v>
       </c>
       <c r="J11" t="n">
-        <v>10.64205129852692</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>113.4301655082087</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>34.34031316763179</v>
       </c>
       <c r="Q11" t="n">
-        <v>113.4301655082087</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
         <v>113.4301655082087</v>
@@ -28175,13 +28175,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>28.50045832572327</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>87.68688454172602</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -28214,7 +28214,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -28354,13 +28354,13 @@
         <v>113.4301655082087</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>113.4301655082087</v>
       </c>
-      <c r="M14" t="n">
-        <v>10.64205129852701</v>
-      </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>34.34031316763185</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -28372,7 +28372,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>113.4301655082087</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
         <v>113.4301655082087</v>
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>87.686884541726</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28457,7 +28457,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>87.68688454172739</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="C17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="D17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="F17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="G17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="H17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28591,46 +28591,46 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>122.3550639456196</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="O17" t="n">
-        <v>171.0038246928718</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>171.0038246928718</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>122.3550639456183</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="S17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="T17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="U17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="V17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="W17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="X17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="Y17" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
     </row>
     <row r="18">
@@ -28652,7 +28652,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>87.68688454172602</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -28661,7 +28661,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>28.50045832572321</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -28719,7 +28719,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>3.944766807333721</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3.944766807332755</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>38.15196793284785</v>
@@ -28770,25 +28770,25 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="T19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="U19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="V19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="W19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="X19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0038246928718</v>
+        <v>171.0038246928717</v>
       </c>
     </row>
     <row r="20">
@@ -28828,7 +28828,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>122.3550639456196</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -28837,13 +28837,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>171.0038246928718</v>
       </c>
       <c r="P20" t="n">
-        <v>122.3550639456184</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>171.0038246928718</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>171.0038246928718</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>87.6868845417273</v>
+        <v>19.98842208488638</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.944766807332911</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>151.9713303790983</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>171.0038246928718</v>
@@ -29071,19 +29071,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>32.62316030651414</v>
+      </c>
+      <c r="P23" t="n">
         <v>171.0038246928718</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>171.0038246928718</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
-        <v>122.3550639456178</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>171.0038246928718</v>
@@ -29132,7 +29132,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>19.98842208488684</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>19.98842208488774</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -29199,7 +29199,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>155.4859410478477</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>3.944766807332911</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y26" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="27">
@@ -29369,10 +29369,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="I27" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L29" t="n">
-        <v>113.4301655082092</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082086</v>
       </c>
       <c r="N29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y29" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="30">
@@ -29609,7 +29609,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>14.56549128550358</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -29636,7 +29636,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="C31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="D31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="E31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="F31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="G31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="H31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="I31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="J31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="K31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="L31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="M31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="N31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="O31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="P31" t="n">
-        <v>113.4301655082083</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Q31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="R31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="S31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="T31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="U31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="V31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="W31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="X31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
       <c r="Y31" t="n">
-        <v>113.4301655082088</v>
+        <v>113.4301655082087</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="C32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="D32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="E32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="F32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="G32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="H32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="I32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="J32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="K32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="L32" t="n">
-        <v>141.6506880371649</v>
+        <v>63.69544852599</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>63.69544852598841</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="P32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="Q32" t="n">
-        <v>141.6506880371649</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="S32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="T32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="U32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="V32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="W32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="X32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="Y32" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
     </row>
     <row r="33">
@@ -29840,7 +29840,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>14.56549128550338</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="C34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="D34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="E34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="F34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="G34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="H34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="I34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="K34" t="n">
-        <v>103.9870666466931</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>125.2917649138165</v>
       </c>
       <c r="P34" t="n">
-        <v>141.6506880371649</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>141.6506880371649</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="S34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="T34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="U34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="V34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="W34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="X34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
       <c r="Y34" t="n">
-        <v>141.6506880371649</v>
+        <v>141.6506880371648</v>
       </c>
     </row>
     <row r="35">
@@ -30007,31 +30007,31 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>166.1290651424569</v>
       </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>116.9787331327007</v>
       </c>
       <c r="N35" t="n">
-        <v>40.58157162934924</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="P35" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>166.1290651424569</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S35" t="n">
         <v>166.1290651424569</v>
@@ -30083,7 +30083,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>14.56549128550371</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -30110,7 +30110,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.1290651424569</v>
       </c>
       <c r="D37" t="n">
-        <v>151.5411742405149</v>
+        <v>152.6650248714419</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30180,13 +30180,13 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>45.56176619902595</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R37" t="n">
         <v>148.0265635717656</v>
@@ -30244,19 +30244,19 @@
         <v>166.1290651424569</v>
       </c>
       <c r="J38" t="n">
-        <v>166.1290651424569</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>166.1290651424569</v>
       </c>
       <c r="L38" t="n">
-        <v>40.5815716293493</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>166.1290651424569</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>40.58157162934901</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>14.56549128550373</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -30347,7 +30347,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>14.56549128550315</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>151.6127747272213</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30420,10 +30420,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>45.56176619902594</v>
       </c>
       <c r="Q40" t="n">
-        <v>84.83758476280077</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R40" t="n">
         <v>148.0265635717656</v>
@@ -30481,16 +30481,16 @@
         <v>160.3593212992904</v>
       </c>
       <c r="J41" t="n">
-        <v>160.3593212992904</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>160.3593212992904</v>
       </c>
       <c r="L41" t="n">
-        <v>128.5182208190341</v>
+        <v>160.3593212992904</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>128.518220819034</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30557,7 +30557,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>14.5654912855036</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30621,7 +30621,7 @@
         <v>160.3593212992904</v>
       </c>
       <c r="D43" t="n">
-        <v>151.5411742405149</v>
+        <v>158.55191788559</v>
       </c>
       <c r="E43" t="n">
         <v>150.4889240962943</v>
@@ -30642,7 +30642,7 @@
         <v>59.456666199969</v>
       </c>
       <c r="K43" t="n">
-        <v>105.5545469714341</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -30660,7 +30660,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>136.6957712592067</v>
       </c>
       <c r="R43" t="n">
         <v>148.0265635717656</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="C44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="D44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="E44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="F44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="G44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="H44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="I44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="J44" t="n">
-        <v>160.3593212992904</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>160.3593212992904</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>128.5182208190341</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>128.5182208190342</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="R44" t="n">
         <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="T44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="U44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="V44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="W44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="X44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="Y44" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
     </row>
     <row r="45">
@@ -30791,7 +30791,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.56549128550326</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30827,7 +30827,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>14.56549128550355</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="C46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30864,13 +30864,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>157.9665920695558</v>
       </c>
       <c r="G46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="I46" t="n">
         <v>142.7610139533483</v>
@@ -30897,31 +30897,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.7065149042819</v>
+        <v>134.1153687284357</v>
       </c>
       <c r="R46" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="T46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="U46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="V46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="W46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="X46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
       <c r="Y46" t="n">
-        <v>160.3593212992904</v>
+        <v>160.3593212992903</v>
       </c>
     </row>
   </sheetData>
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K2" t="n">
-        <v>208.0199218393282</v>
+        <v>135.2941195435672</v>
       </c>
       <c r="L2" t="n">
         <v>351.3993667524709</v>
@@ -34784,19 +34784,19 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>416.1549552493144</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>498.2115702199258</v>
+        <v>449.8538496497559</v>
       </c>
       <c r="O3" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K5" t="n">
-        <v>208.0199218393282</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L5" t="n">
         <v>351.3993667524709</v>
@@ -34951,10 +34951,10 @@
         <v>308.0854388614484</v>
       </c>
       <c r="P5" t="n">
-        <v>230.4615115717709</v>
+        <v>218.5757135817564</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35024,16 +35024,16 @@
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>498.2115702199258</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>322.3838413845915</v>
+        <v>356.0827357850331</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,7 +35258,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M9" t="n">
-        <v>40.69581689574456</v>
+        <v>345.8432101035195</v>
       </c>
       <c r="N9" t="n">
         <v>516.4299455789112</v>
@@ -35267,7 +35267,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>159.3652826117113</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>83.36785359429021</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K11" t="n">
         <v>242.5660323684674</v>
       </c>
       <c r="L11" t="n">
-        <v>464.8295322606796</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M11" t="n">
         <v>510.6414445517319</v>
       </c>
       <c r="N11" t="n">
-        <v>382.1528875633492</v>
+        <v>495.583053071558</v>
       </c>
       <c r="O11" t="n">
-        <v>308.0854388614484</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P11" t="n">
-        <v>230.4615115717709</v>
+        <v>264.8018247394027</v>
       </c>
       <c r="Q11" t="n">
-        <v>208.8162803430945</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R11" t="n">
-        <v>23.69826186910352</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>231.8086389496855</v>
@@ -35498,7 +35498,7 @@
         <v>489.93268031336</v>
       </c>
       <c r="N12" t="n">
-        <v>516.4299455789112</v>
+        <v>502.6866661294193</v>
       </c>
       <c r="O12" t="n">
         <v>396.1615664486372</v>
@@ -35507,7 +35507,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q12" t="n">
-        <v>84.7592288863527</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>53.9734993082397</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K13" t="n">
         <v>147.373789492697</v>
@@ -35586,7 +35586,7 @@
         <v>177.0346945265297</v>
       </c>
       <c r="Q13" t="n">
-        <v>75.27819757536085</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,16 +35647,16 @@
         <v>186.155967803972</v>
       </c>
       <c r="K14" t="n">
-        <v>355.9961978766761</v>
+        <v>355.9961978766762</v>
       </c>
       <c r="L14" t="n">
-        <v>464.8295322606797</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M14" t="n">
-        <v>407.8533303420502</v>
+        <v>510.6414445517319</v>
       </c>
       <c r="N14" t="n">
-        <v>382.1528875633492</v>
+        <v>416.4932007309811</v>
       </c>
       <c r="O14" t="n">
         <v>308.0854388614484</v>
@@ -35668,7 +35668,7 @@
         <v>95.38611483488586</v>
       </c>
       <c r="R14" t="n">
-        <v>23.69826186910353</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K15" t="n">
-        <v>218.0653595001924</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L15" t="n">
         <v>369.5170153233491</v>
@@ -35744,7 +35744,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3652826117113</v>
+        <v>84.75922888635408</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>53.97349930823972</v>
+        <v>53.97349930823975</v>
       </c>
       <c r="K16" t="n">
         <v>147.373789492697</v>
@@ -35811,19 +35811,19 @@
         <v>215.0534780337234</v>
       </c>
       <c r="M16" t="n">
-        <v>232.6155252330589</v>
+        <v>232.615525233059</v>
       </c>
       <c r="N16" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O16" t="n">
-        <v>212.8883942917336</v>
+        <v>212.8883942917337</v>
       </c>
       <c r="P16" t="n">
         <v>177.0346945265297</v>
       </c>
       <c r="Q16" t="n">
-        <v>75.27819757536086</v>
+        <v>75.27819757536089</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>351.3993667524709</v>
+        <v>473.7544306980906</v>
       </c>
       <c r="M17" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>382.1528875633492</v>
+        <v>553.156712256221</v>
       </c>
       <c r="O17" t="n">
-        <v>479.0892635543203</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>401.4653362646427</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
-        <v>32.62316030651311</v>
+        <v>81.27192105376653</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K18" t="n">
-        <v>231.8086389496855</v>
+        <v>157.2025852243289</v>
       </c>
       <c r="L18" t="n">
         <v>369.5170153233491</v>
@@ -35981,7 +35981,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>145.6220031622178</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36048,7 @@
         <v>101.6233125255146</v>
       </c>
       <c r="M19" t="n">
-        <v>119.1853597248502</v>
+        <v>123.130126532184</v>
       </c>
       <c r="N19" t="n">
         <v>119.6185270197983</v>
@@ -36057,7 +36057,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P19" t="n">
-        <v>67.54929582565376</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36124,7 +36124,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524709</v>
+        <v>473.7544306980906</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36133,13 +36133,13 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0854388614484</v>
+        <v>479.0892635543203</v>
       </c>
       <c r="P20" t="n">
-        <v>352.8165755173894</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q20" t="n">
-        <v>266.3899395277576</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R20" t="n">
         <v>81.27192105376662</v>
@@ -36206,7 +36206,7 @@
         <v>369.5170153233491</v>
       </c>
       <c r="M21" t="n">
-        <v>489.93268031336</v>
+        <v>415.3266265880035</v>
       </c>
       <c r="N21" t="n">
         <v>516.4299455789112</v>
@@ -36218,7 +36218,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>84.7592288863527</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>123.5632938271313</v>
       </c>
       <c r="O22" t="n">
         <v>99.45822878352493</v>
@@ -36300,7 +36300,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>3.944766807332732</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36367,19 +36367,19 @@
         <v>397.2112790435232</v>
       </c>
       <c r="N23" t="n">
-        <v>553.156712256221</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O23" t="n">
-        <v>479.0892635543203</v>
+        <v>340.7085991679626</v>
       </c>
       <c r="P23" t="n">
-        <v>230.4615115717709</v>
+        <v>401.4653362646427</v>
       </c>
       <c r="Q23" t="n">
-        <v>95.38611483488586</v>
+        <v>266.3899395277576</v>
       </c>
       <c r="R23" t="n">
-        <v>32.62316030651264</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>231.8086389496855</v>
@@ -36446,13 +36446,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N24" t="n">
-        <v>516.4299455789112</v>
+        <v>502.6866661294189</v>
       </c>
       <c r="O24" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>230.5413394824161</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
         <v>159.3652826117113</v>
@@ -36495,7 +36495,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.944766807332818</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -36525,7 +36525,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N25" t="n">
-        <v>119.6185270197983</v>
+        <v>123.5632938271313</v>
       </c>
       <c r="O25" t="n">
         <v>99.45822878352493</v>
@@ -36595,7 +36595,7 @@
         <v>186.155967803972</v>
       </c>
       <c r="K26" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L26" t="n">
         <v>464.8295322606797</v>
@@ -36607,7 +36607,7 @@
         <v>495.583053071558</v>
       </c>
       <c r="O26" t="n">
-        <v>421.5156043696572</v>
+        <v>421.5156043696571</v>
       </c>
       <c r="P26" t="n">
         <v>343.8916770799797</v>
@@ -36616,7 +36616,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R26" t="n">
-        <v>23.69826186910358</v>
+        <v>23.69826186910353</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>53.97349930823976</v>
+        <v>53.97349930823972</v>
       </c>
       <c r="K28" t="n">
-        <v>147.3737894926971</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L28" t="n">
         <v>215.0534780337234</v>
       </c>
       <c r="M28" t="n">
-        <v>232.615525233059</v>
+        <v>232.6155252330589</v>
       </c>
       <c r="N28" t="n">
         <v>233.0486925280071</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8883942917337</v>
+        <v>212.8883942917336</v>
       </c>
       <c r="P28" t="n">
-        <v>177.0346945265298</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q28" t="n">
-        <v>75.27819757536091</v>
+        <v>75.27819757536086</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>186.155967803972</v>
       </c>
       <c r="K29" t="n">
-        <v>355.9961978766762</v>
+        <v>355.9961978766761</v>
       </c>
       <c r="L29" t="n">
-        <v>464.8295322606801</v>
+        <v>464.8295322606797</v>
       </c>
       <c r="M29" t="n">
-        <v>510.6414445517319</v>
+        <v>510.6414445517318</v>
       </c>
       <c r="N29" t="n">
         <v>495.583053071558</v>
@@ -36853,7 +36853,7 @@
         <v>208.8162803430946</v>
       </c>
       <c r="R29" t="n">
-        <v>23.69826186910358</v>
+        <v>23.69826186910355</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>53.97349930823976</v>
+        <v>53.97349930823973</v>
       </c>
       <c r="K31" t="n">
-        <v>147.3737894926971</v>
+        <v>147.373789492697</v>
       </c>
       <c r="L31" t="n">
         <v>215.0534780337234</v>
@@ -37005,10 +37005,10 @@
         <v>212.8883942917337</v>
       </c>
       <c r="P31" t="n">
-        <v>177.0346945265293</v>
+        <v>177.0346945265297</v>
       </c>
       <c r="Q31" t="n">
-        <v>75.27819757536091</v>
+        <v>75.27819757536088</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3764903329282</v>
+        <v>214.3764903329281</v>
       </c>
       <c r="K32" t="n">
-        <v>384.2167204056324</v>
+        <v>384.2167204056323</v>
       </c>
       <c r="L32" t="n">
-        <v>493.0500547896359</v>
+        <v>415.0948152784609</v>
       </c>
       <c r="M32" t="n">
-        <v>397.2112790435232</v>
+        <v>538.8619670806879</v>
       </c>
       <c r="N32" t="n">
         <v>382.1528875633492</v>
       </c>
       <c r="O32" t="n">
-        <v>371.7808873874368</v>
+        <v>449.7361268986132</v>
       </c>
       <c r="P32" t="n">
-        <v>372.1121996089358</v>
+        <v>372.1121996089357</v>
       </c>
       <c r="Q32" t="n">
-        <v>237.0368028720508</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
-        <v>51.91878439805973</v>
+        <v>51.91878439805961</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.19402183719581</v>
       </c>
       <c r="K34" t="n">
-        <v>137.9306906311814</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L34" t="n">
         <v>101.6233125255146</v>
       </c>
       <c r="M34" t="n">
-        <v>119.1853597248502</v>
+        <v>260.836047762015</v>
       </c>
       <c r="N34" t="n">
         <v>119.6185270197983</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45822878352493</v>
+        <v>224.7499936973414</v>
       </c>
       <c r="P34" t="n">
-        <v>205.2552170554859</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q34" t="n">
-        <v>103.4987201043171</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5660323684674</v>
+        <v>408.6950975109244</v>
       </c>
       <c r="L35" t="n">
         <v>351.3993667524709</v>
       </c>
       <c r="M35" t="n">
-        <v>397.2112790435232</v>
+        <v>514.1900121762238</v>
       </c>
       <c r="N35" t="n">
-        <v>422.7344591926985</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O35" t="n">
-        <v>308.0854388614484</v>
+        <v>474.2145040039054</v>
       </c>
       <c r="P35" t="n">
-        <v>396.5905767142278</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
       </c>
       <c r="R35" t="n">
-        <v>76.39716150335175</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,13 +37394,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
-        <v>516.4299455789112</v>
+        <v>516.4299455789111</v>
       </c>
       <c r="O36" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.1473932077745</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q36" t="n">
         <v>159.3652826117113</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37476,13 +37476,13 @@
         <v>119.6185270197983</v>
       </c>
       <c r="O37" t="n">
-        <v>99.45822878352493</v>
+        <v>145.0199949825509</v>
       </c>
       <c r="P37" t="n">
         <v>63.604529018321</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>238.8548674382202</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
         <v>408.6950975109244</v>
       </c>
       <c r="L38" t="n">
-        <v>391.9809383818202</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M38" t="n">
-        <v>397.2112790435232</v>
+        <v>563.3403441859801</v>
       </c>
       <c r="N38" t="n">
-        <v>382.1528875633492</v>
+        <v>422.7344591926982</v>
       </c>
       <c r="O38" t="n">
         <v>308.0854388614484</v>
@@ -37622,7 +37622,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>231.8086389496855</v>
+        <v>231.8086389496856</v>
       </c>
       <c r="L39" t="n">
         <v>369.5170153233491</v>
@@ -37683,7 +37683,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.123850630926996</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -37716,10 +37716,10 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P40" t="n">
-        <v>63.604529018321</v>
+        <v>109.1662952173469</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.68561682995292</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>233.0851235950537</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
         <v>402.9253536677578</v>
       </c>
       <c r="L41" t="n">
-        <v>479.917587571505</v>
+        <v>511.7586880517613</v>
       </c>
       <c r="M41" t="n">
-        <v>397.2112790435232</v>
+        <v>525.7294998625572</v>
       </c>
       <c r="N41" t="n">
         <v>382.1528875633492</v>
@@ -37877,7 +37877,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.3652826117107</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37917,7 +37917,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>7.010743645075078</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>139.4981709559224</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L43" t="n">
         <v>101.6233125255146</v>
@@ -37956,7 +37956,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>98.54380332635881</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>233.0851235950537</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K44" t="n">
-        <v>402.9253536677578</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L44" t="n">
-        <v>479.917587571505</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M44" t="n">
         <v>397.2112790435232</v>
       </c>
       <c r="N44" t="n">
-        <v>382.1528875633492</v>
+        <v>542.5122088626396</v>
       </c>
       <c r="O44" t="n">
         <v>308.0854388614484</v>
       </c>
       <c r="P44" t="n">
-        <v>230.4615115717709</v>
+        <v>358.9797323908052</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>255.7454361341762</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38160,13 +38160,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>7.010743645075134</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.580402530771437</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.554546971434</v>
+        <v>95.96340079558789</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
